--- a/zephyrm-backend/files/assets_report.xlsx
+++ b/zephyrm-backend/files/assets_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -46,22 +46,37 @@
     <t>Cordoba</t>
   </si>
   <si>
-    <t>Free</t>
+    <t>On loan</t>
   </si>
   <si>
-    <t>Prueba</t>
+    <t>Pruebacion portas</t>
   </si>
   <si>
     <t>Unassigned</t>
   </si>
   <si>
+    <t>Jose Cabrera</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
     <t>Carlos</t>
   </si>
   <si>
-    <t>Jose Cabrera</t>
+    <t xml:space="preserve">teresa saez </t>
   </si>
   <si>
-    <t>PruebaAdmin</t>
+    <t>gatos</t>
+  </si>
+  <si>
+    <t>mascotas</t>
+  </si>
+  <si>
+    <t>animal blanquito y suave</t>
+  </si>
+  <si>
+    <t>Under maintenance</t>
   </si>
 </sst>
 </file>
@@ -414,10 +429,10 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="8" width="22" customWidth="1"/>
     <col min="9" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -556,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>13</v>
@@ -582,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -602,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>13</v>
@@ -625,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>13</v>
@@ -648,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
@@ -674,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -697,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -717,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>13</v>
@@ -743,15 +758,31 @@
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45798.68992181713</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>

--- a/zephyrm-backend/files/assets_report.xlsx
+++ b/zephyrm-backend/files/assets_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Title</t>
   </si>
@@ -43,49 +43,16 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t>04:F1:C9:D1:29:02:89</t>
-  </si>
-  <si>
     <t>Lenovo Giant</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>gatos</t>
-  </si>
-  <si>
-    <t>mascotas</t>
-  </si>
-  <si>
-    <t>animal blanquito y suave</t>
-  </si>
-  <si>
-    <t>Main Office</t>
-  </si>
-  <si>
-    <t>Under maintenance</t>
-  </si>
-  <si>
-    <t>Worker Segundo Prueba</t>
-  </si>
-  <si>
-    <t>Dell Laptop</t>
-  </si>
-  <si>
-    <t>High-performance laptop</t>
-  </si>
-  <si>
     <t>On loan</t>
   </si>
   <si>
-    <t>Admin Segundo Prueba</t>
+    <t>Worker Apellido1 Apellido1</t>
   </si>
   <si>
     <t>Office Chair</t>
@@ -100,10 +67,19 @@
     <t>HR Department</t>
   </si>
   <si>
+    <t>Worker Apellido2 Apellido2</t>
+  </si>
+  <si>
     <t>Epson Printer</t>
   </si>
   <si>
     <t>Multifunctional printer</t>
+  </si>
+  <si>
+    <t>Main Office</t>
+  </si>
+  <si>
+    <t>Admin Apellido2 Apellido2</t>
   </si>
   <si>
     <t>Conference Table</t>
@@ -115,10 +91,16 @@
     <t>Conference Room</t>
   </si>
   <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
     <t>CCTV Camera</t>
   </si>
   <si>
-    <t>Security</t>
+    <t>Safety</t>
   </si>
   <si>
     <t>Surveillance camera</t>
@@ -134,9 +116,6 @@
   </si>
   <si>
     <t>IT Department</t>
-  </si>
-  <si>
-    <t>Worker Primero  Prueba</t>
   </si>
   <si>
     <t>Air Conditioner</t>
@@ -163,13 +142,13 @@
     <t>4K Resolution projector</t>
   </si>
   <si>
-    <t>Admin Primero Prueba</t>
+    <t>Under maintenance</t>
+  </si>
+  <si>
+    <t>Admin Apellido1 Apellido1</t>
   </si>
   <si>
     <t>Fire Extinguisher</t>
-  </si>
-  <si>
-    <t>Safety</t>
   </si>
   <si>
     <t>Portable fire extinguisher</t>
@@ -561,18 +540,19 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="27" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
@@ -629,396 +609,363 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7">
+        <v>45950.944444444445</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
-        <v>45939.370370370365</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7">
-        <v>45950.944444444445</v>
+        <v>45799.288948437505</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7">
-        <v>45798.68992181713</v>
+        <v>45799.28948716435</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7">
-        <v>45799.28768337963</v>
+        <v>45799.289864907405</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45799.29036103009</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45799.288948437505</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7">
-        <v>45799.28948716435</v>
+        <v>45799.29102040509</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7">
-        <v>45799.289864907405</v>
+        <v>45799.29140688658</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7">
-        <v>45799.29036103009</v>
+        <v>45799.29184556713</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7">
-        <v>45799.29102040509</v>
+        <v>45799.292206701386</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7">
-        <v>45799.29140688658</v>
+        <v>45799.29247861111</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7">
-        <v>45799.29184556713</v>
+        <v>45799.29279086806</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7">
-        <v>45799.292206701386</v>
+        <v>45799.2931303125</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7">
-        <v>45799.29247861111</v>
+        <v>45799.293319027776</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7">
-        <v>45799.29279086806</v>
+        <v>45799.29361042824</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45799.2931303125</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7">
-        <v>45799.293319027776</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7">
-        <v>45799.29361042824</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="2"/>
@@ -1026,6 +973,7 @@
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="2"/>
@@ -1033,6 +981,7 @@
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="2"/>
@@ -1040,6 +989,7 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
@@ -1047,6 +997,7 @@
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="2"/>
@@ -1054,6 +1005,7 @@
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="2"/>
@@ -1061,6 +1013,7 @@
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="2"/>
@@ -1068,6 +1021,7 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="2"/>
@@ -1075,6 +1029,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="2"/>
@@ -1082,6 +1037,7 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
@@ -1089,6 +1045,7 @@
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
@@ -1096,6 +1053,7 @@
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="2"/>
@@ -1103,6 +1061,7 @@
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
@@ -1110,6 +1069,7 @@
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
@@ -1117,6 +1077,7 @@
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="2"/>
@@ -1124,6 +1085,7 @@
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="2"/>
@@ -1131,6 +1093,7 @@
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="2"/>
@@ -1138,6 +1101,7 @@
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="2"/>
@@ -1145,6 +1109,7 @@
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="2"/>
@@ -1152,6 +1117,7 @@
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="2"/>
@@ -1159,6 +1125,7 @@
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="2"/>
@@ -1166,6 +1133,7 @@
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="2"/>
@@ -1173,6 +1141,7 @@
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
@@ -1180,6 +1149,7 @@
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
@@ -1187,6 +1157,7 @@
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="2"/>
@@ -1194,6 +1165,7 @@
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="2"/>
@@ -1201,6 +1173,7 @@
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="2"/>
@@ -1208,6 +1181,7 @@
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="2"/>
@@ -1215,6 +1189,7 @@
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="2"/>
@@ -1222,6 +1197,7 @@
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="2"/>
@@ -1229,6 +1205,7 @@
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="2"/>
@@ -1236,6 +1213,7 @@
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="2"/>
@@ -1243,6 +1221,7 @@
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="2"/>
@@ -1250,6 +1229,7 @@
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="2"/>
@@ -1257,6 +1237,7 @@
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="2"/>
@@ -1264,6 +1245,7 @@
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="2"/>
@@ -1271,6 +1253,7 @@
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="2"/>
@@ -1278,6 +1261,7 @@
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="2"/>
@@ -1285,6 +1269,7 @@
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="2"/>
@@ -1292,6 +1277,7 @@
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="2"/>
@@ -1299,6 +1285,7 @@
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="2"/>
@@ -1306,6 +1293,7 @@
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="2"/>
@@ -1313,6 +1301,7 @@
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="2"/>
@@ -1320,6 +1309,7 @@
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="2"/>
@@ -1327,6 +1317,7 @@
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="2"/>
@@ -1334,6 +1325,7 @@
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="2"/>
@@ -1341,6 +1333,7 @@
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="2"/>
@@ -1348,6 +1341,7 @@
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="2"/>
@@ -1355,6 +1349,7 @@
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="2"/>
@@ -1362,6 +1357,7 @@
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="2"/>
@@ -1369,6 +1365,7 @@
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="2"/>
@@ -1376,6 +1373,7 @@
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="2"/>
@@ -1383,6 +1381,7 @@
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="2"/>
@@ -1390,6 +1389,7 @@
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="2"/>
@@ -1397,6 +1397,7 @@
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="2"/>
@@ -1404,6 +1405,7 @@
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="2"/>
@@ -1411,6 +1413,7 @@
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="2"/>
@@ -1418,6 +1421,7 @@
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="2"/>
@@ -1425,6 +1429,7 @@
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="2"/>
@@ -1432,6 +1437,7 @@
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="2"/>
@@ -1439,6 +1445,7 @@
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
@@ -1446,6 +1453,7 @@
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
@@ -1453,6 +1461,7 @@
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="2"/>
@@ -1460,6 +1469,7 @@
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="2"/>
@@ -1467,6 +1477,7 @@
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="2"/>
@@ -1474,6 +1485,7 @@
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="2"/>
@@ -1481,6 +1493,7 @@
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="2"/>
@@ -1488,6 +1501,7 @@
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="2"/>
@@ -1495,6 +1509,7 @@
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="2"/>
@@ -1502,6 +1517,7 @@
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="2"/>
@@ -1509,6 +1525,7 @@
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="2"/>
@@ -1516,6 +1533,7 @@
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="2"/>
@@ -1523,6 +1541,7 @@
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="2"/>
@@ -1530,6 +1549,7 @@
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="2"/>
@@ -1537,6 +1557,7 @@
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="2"/>
@@ -1544,6 +1565,7 @@
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="2"/>
@@ -1551,6 +1573,7 @@
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="2"/>
@@ -1558,6 +1581,7 @@
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="2"/>
@@ -1565,6 +1589,7 @@
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="2"/>
@@ -1572,6 +1597,7 @@
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="2"/>
@@ -1579,6 +1605,7 @@
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="2"/>
@@ -1586,6 +1613,7 @@
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="2"/>
@@ -1593,6 +1621,7 @@
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2"/>
@@ -1600,6 +1629,7 @@
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2"/>
@@ -1607,6 +1637,7 @@
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2"/>
@@ -1614,6 +1645,7 @@
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="2"/>
@@ -1621,6 +1653,7 @@
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
@@ -1628,6 +1661,7 @@
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="2"/>
@@ -1635,6 +1669,7 @@
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="2"/>
@@ -1642,6 +1677,7 @@
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2"/>
@@ -1649,6 +1685,7 @@
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="2"/>
@@ -1656,6 +1693,7 @@
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="2"/>
@@ -1663,6 +1701,7 @@
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="2"/>
@@ -1670,6 +1709,7 @@
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="2"/>
@@ -1677,6 +1717,7 @@
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="2"/>
@@ -1684,6 +1725,7 @@
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="2"/>
@@ -1691,6 +1733,7 @@
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="2"/>
@@ -1698,6 +1741,7 @@
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="2"/>
@@ -1705,6 +1749,7 @@
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="2"/>
@@ -1712,6 +1757,7 @@
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="2"/>
@@ -1719,6 +1765,7 @@
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="2"/>
@@ -1726,6 +1773,7 @@
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="2"/>
@@ -1733,6 +1781,7 @@
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="2"/>
@@ -1740,6 +1789,7 @@
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="2"/>
@@ -1747,6 +1797,7 @@
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="2"/>
@@ -1754,6 +1805,7 @@
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="2"/>
@@ -1761,6 +1813,7 @@
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="2"/>
@@ -1768,6 +1821,7 @@
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="2"/>
@@ -1775,6 +1829,7 @@
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="2"/>
@@ -1782,6 +1837,7 @@
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="2"/>
@@ -1789,6 +1845,7 @@
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="2"/>
@@ -1796,6 +1853,7 @@
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="2"/>
@@ -1803,6 +1861,7 @@
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="2"/>
@@ -1810,6 +1869,7 @@
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="2"/>
@@ -1817,6 +1877,7 @@
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="2"/>
@@ -1824,6 +1885,7 @@
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="2"/>
@@ -1831,6 +1893,7 @@
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="2"/>
@@ -1838,6 +1901,7 @@
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="2"/>
@@ -1845,6 +1909,7 @@
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="2"/>
@@ -1852,6 +1917,7 @@
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="2"/>
@@ -1859,6 +1925,7 @@
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="2"/>
@@ -1866,6 +1933,7 @@
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="2"/>
@@ -1873,6 +1941,7 @@
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="2"/>
@@ -1880,6 +1949,7 @@
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="2"/>
@@ -1887,6 +1957,7 @@
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="2"/>
@@ -1894,6 +1965,7 @@
     <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="2"/>
@@ -1901,6 +1973,7 @@
     <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2"/>
@@ -1908,6 +1981,7 @@
     <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="2"/>
@@ -1915,6 +1989,7 @@
     <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="2"/>
@@ -1922,6 +1997,7 @@
     <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="2"/>
@@ -1929,6 +2005,7 @@
     <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="2"/>
@@ -1936,6 +2013,7 @@
     <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="2"/>
@@ -1943,6 +2021,7 @@
     <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="2"/>
@@ -1950,6 +2029,7 @@
     <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="2"/>
@@ -1957,6 +2037,7 @@
     <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2"/>
@@ -1964,6 +2045,7 @@
     <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="2"/>
@@ -1971,6 +2053,7 @@
     <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2"/>
@@ -1978,6 +2061,7 @@
     <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2"/>
@@ -1985,6 +2069,7 @@
     <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="2"/>
@@ -1992,6 +2077,7 @@
     <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="2"/>
@@ -1999,6 +2085,7 @@
     <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="2"/>
@@ -2006,6 +2093,7 @@
     <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="2"/>
@@ -2013,6 +2101,7 @@
     <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="2"/>
@@ -2020,6 +2109,7 @@
     <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="2"/>
@@ -2027,6 +2117,7 @@
     <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="2"/>
@@ -2034,6 +2125,7 @@
     <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2"/>
@@ -2041,6 +2133,7 @@
     <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2"/>
@@ -2048,6 +2141,7 @@
     <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="2"/>
@@ -2055,6 +2149,7 @@
     <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="2"/>
@@ -2062,6 +2157,7 @@
     <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="2"/>
@@ -2069,6 +2165,7 @@
     <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="2"/>
@@ -2076,6 +2173,7 @@
     <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="2"/>
@@ -2083,6 +2181,7 @@
     <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="2"/>
@@ -2090,6 +2189,7 @@
     <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="2"/>
@@ -2097,6 +2197,7 @@
     <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="2"/>
@@ -2104,6 +2205,7 @@
     <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="2"/>
@@ -2111,6 +2213,7 @@
     <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="2"/>
@@ -2118,6 +2221,7 @@
     <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="2"/>
@@ -2125,6 +2229,7 @@
     <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="2"/>
@@ -2132,6 +2237,7 @@
     <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="2"/>
@@ -2139,6 +2245,7 @@
     <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="2"/>
@@ -2146,6 +2253,7 @@
     <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="2"/>
@@ -2153,6 +2261,7 @@
     <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="2"/>
@@ -2160,6 +2269,7 @@
     <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="2"/>
@@ -2167,6 +2277,7 @@
     <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="2"/>
@@ -2174,6 +2285,7 @@
     <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="2"/>
@@ -2181,6 +2293,7 @@
     <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="2"/>
@@ -2188,6 +2301,7 @@
     <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="2"/>
@@ -2195,6 +2309,7 @@
     <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="2"/>
@@ -2202,6 +2317,7 @@
     <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="2"/>
@@ -2209,6 +2325,7 @@
     <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="2"/>
@@ -2216,6 +2333,7 @@
     <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="2"/>
@@ -2223,6 +2341,7 @@
     <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="2"/>
@@ -2230,6 +2349,7 @@
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="2"/>
@@ -2237,6 +2357,7 @@
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="2"/>
@@ -2244,6 +2365,7 @@
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="2"/>
@@ -2251,6 +2373,7 @@
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="2"/>
@@ -2258,6 +2381,7 @@
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="2"/>
@@ -2265,6 +2389,7 @@
     <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="2"/>
@@ -2272,6 +2397,7 @@
     <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="2"/>
@@ -2279,6 +2405,7 @@
     <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="2"/>
@@ -2286,6 +2413,7 @@
     <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="2"/>
@@ -2293,6 +2421,7 @@
     <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="2"/>
@@ -2300,6 +2429,7 @@
     <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="2"/>
@@ -2307,6 +2437,7 @@
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="2"/>
@@ -2314,6 +2445,7 @@
     <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="2"/>
@@ -2321,6 +2453,7 @@
     <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="2"/>
@@ -2328,6 +2461,7 @@
     <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="2"/>
@@ -2335,6 +2469,7 @@
     <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="2"/>
@@ -2342,6 +2477,7 @@
     <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="2"/>
@@ -2349,6 +2485,7 @@
     <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="2"/>
@@ -2356,6 +2493,7 @@
     <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="2"/>
@@ -2363,6 +2501,7 @@
     <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="2"/>
@@ -2370,6 +2509,7 @@
     <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="2"/>
@@ -2377,6 +2517,7 @@
     <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="2"/>
@@ -2384,6 +2525,7 @@
     <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="2"/>
@@ -2391,6 +2533,7 @@
     <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="2"/>
@@ -2398,6 +2541,7 @@
     <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="2"/>
@@ -2405,6 +2549,7 @@
     <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="2"/>
@@ -2412,6 +2557,7 @@
     <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="2"/>
@@ -2419,6 +2565,7 @@
     <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="2"/>
@@ -2426,6 +2573,7 @@
     <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="2"/>
@@ -2433,6 +2581,7 @@
     <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="2"/>
@@ -2440,6 +2589,7 @@
     <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="2"/>
@@ -2447,6 +2597,7 @@
     <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="2"/>
@@ -2454,6 +2605,7 @@
     <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="2"/>
@@ -2461,6 +2613,7 @@
     <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="2"/>
@@ -2468,6 +2621,7 @@
     <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="2"/>
@@ -2475,6 +2629,7 @@
     <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="2"/>
@@ -2482,6 +2637,7 @@
     <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="2"/>
@@ -2489,6 +2645,7 @@
     <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="2"/>
@@ -2496,6 +2653,7 @@
     <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="2"/>
@@ -2503,6 +2661,7 @@
     <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="2"/>
@@ -2510,6 +2669,7 @@
     <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="2"/>
@@ -2517,6 +2677,7 @@
     <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="2"/>
@@ -2524,6 +2685,7 @@
     <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="2"/>
@@ -2531,6 +2693,7 @@
     <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="2"/>
@@ -2538,6 +2701,7 @@
     <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="2"/>
@@ -2545,6 +2709,7 @@
     <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="2"/>
@@ -2552,6 +2717,7 @@
     <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2"/>
@@ -2559,6 +2725,7 @@
     <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2"/>
@@ -2566,6 +2733,7 @@
     <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="2"/>
@@ -2573,6 +2741,7 @@
     <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="2"/>
@@ -2580,6 +2749,7 @@
     <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="2"/>
@@ -2587,6 +2757,7 @@
     <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="2"/>
@@ -2594,6 +2765,7 @@
     <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="2"/>
@@ -2601,6 +2773,7 @@
     <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="2"/>
@@ -2608,6 +2781,7 @@
     <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="2"/>
@@ -2615,6 +2789,7 @@
     <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="2"/>
@@ -2622,6 +2797,7 @@
     <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="2"/>
@@ -2629,6 +2805,7 @@
     <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="2"/>
@@ -2636,6 +2813,7 @@
     <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="2"/>
@@ -2643,6 +2821,7 @@
     <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="2"/>
@@ -2650,6 +2829,7 @@
     <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="2"/>
@@ -2657,6 +2837,7 @@
     <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="2"/>
@@ -2664,6 +2845,7 @@
     <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="2"/>
@@ -2671,6 +2853,7 @@
     <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="2"/>
@@ -2678,6 +2861,7 @@
     <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="2"/>
@@ -2685,6 +2869,7 @@
     <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="2"/>
@@ -2692,6 +2877,7 @@
     <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="2"/>
@@ -2699,6 +2885,7 @@
     <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="2"/>
@@ -2706,6 +2893,7 @@
     <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="2"/>
@@ -2713,6 +2901,7 @@
     <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="2"/>
@@ -2720,6 +2909,7 @@
     <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="2"/>
@@ -2727,6 +2917,7 @@
     <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="2"/>
@@ -2734,6 +2925,7 @@
     <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="2"/>
@@ -2741,6 +2933,7 @@
     <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="2"/>
@@ -2748,6 +2941,7 @@
     <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="2"/>
@@ -2755,6 +2949,7 @@
     <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="2"/>
@@ -2762,6 +2957,7 @@
     <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="2"/>
@@ -2769,6 +2965,7 @@
     <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="2"/>
@@ -2776,6 +2973,7 @@
     <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="2"/>
@@ -2783,6 +2981,7 @@
     <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="2"/>
@@ -2790,6 +2989,7 @@
     <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2"/>
@@ -2797,6 +2997,7 @@
     <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="2"/>
@@ -2804,6 +3005,7 @@
     <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="2"/>
@@ -2811,6 +3013,7 @@
     <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="2"/>
@@ -2818,6 +3021,7 @@
     <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="2"/>
@@ -2825,6 +3029,7 @@
     <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="2"/>
@@ -2832,6 +3037,7 @@
     <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="2"/>
@@ -2839,6 +3045,7 @@
     <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="2"/>
@@ -2846,6 +3053,7 @@
     <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="2"/>
@@ -2853,6 +3061,7 @@
     <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="2"/>
@@ -2860,6 +3069,7 @@
     <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="2"/>
@@ -2867,6 +3077,7 @@
     <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="2"/>
@@ -2874,6 +3085,7 @@
     <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="2"/>
@@ -2881,6 +3093,7 @@
     <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="2"/>
@@ -2888,6 +3101,7 @@
     <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="2"/>
@@ -2895,6 +3109,7 @@
     <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="2"/>
@@ -2902,6 +3117,7 @@
     <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="2"/>
@@ -2909,6 +3125,7 @@
     <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="2"/>
@@ -2916,6 +3133,7 @@
     <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="2"/>
@@ -2923,6 +3141,7 @@
     <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="2"/>
@@ -2930,6 +3149,7 @@
     <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="2"/>
@@ -2937,6 +3157,7 @@
     <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="2"/>
@@ -2944,6 +3165,7 @@
     <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="2"/>
@@ -2951,6 +3173,7 @@
     <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="2"/>
@@ -2958,6 +3181,7 @@
     <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="2"/>
@@ -2965,6 +3189,7 @@
     <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="2"/>
@@ -2972,6 +3197,7 @@
     <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="2"/>
@@ -2979,6 +3205,7 @@
     <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="2"/>
@@ -2986,6 +3213,7 @@
     <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="2"/>
@@ -2993,6 +3221,7 @@
     <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="2"/>
@@ -3000,6 +3229,7 @@
     <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="2"/>
@@ -3007,6 +3237,7 @@
     <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="2"/>
@@ -3014,6 +3245,7 @@
     <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="2"/>
@@ -3021,6 +3253,7 @@
     <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="2"/>
@@ -3028,6 +3261,7 @@
     <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="2"/>
@@ -3035,6 +3269,7 @@
     <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="2"/>
@@ -3042,6 +3277,7 @@
     <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="2"/>
@@ -3049,6 +3285,7 @@
     <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="2"/>
@@ -3056,6 +3293,7 @@
     <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="2"/>
@@ -3063,6 +3301,7 @@
     <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="2"/>
@@ -3070,6 +3309,7 @@
     <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="2"/>
@@ -3077,6 +3317,7 @@
     <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="2"/>
@@ -3084,6 +3325,7 @@
     <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="2"/>
@@ -3091,6 +3333,7 @@
     <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="2"/>
@@ -3098,6 +3341,7 @@
     <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="2"/>
@@ -3105,6 +3349,7 @@
     <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="2"/>
@@ -3112,6 +3357,7 @@
     <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="2"/>
@@ -3119,6 +3365,7 @@
     <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="2"/>
@@ -3126,6 +3373,7 @@
     <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="2"/>
@@ -3133,6 +3381,7 @@
     <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="2"/>
@@ -3140,6 +3389,7 @@
     <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="2"/>
@@ -3147,6 +3397,7 @@
     <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="2"/>
@@ -3154,6 +3405,7 @@
     <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2"/>
@@ -3161,6 +3413,7 @@
     <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="2"/>
@@ -3168,6 +3421,7 @@
     <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="2"/>
@@ -3175,6 +3429,7 @@
     <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="2"/>
@@ -3182,6 +3437,7 @@
     <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="2"/>
@@ -3189,6 +3445,7 @@
     <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="2"/>
@@ -3196,6 +3453,7 @@
     <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="2"/>
@@ -3203,6 +3461,7 @@
     <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="2"/>
@@ -3210,6 +3469,7 @@
     <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="2"/>
@@ -3217,6 +3477,7 @@
     <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="2"/>
@@ -3224,6 +3485,7 @@
     <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="2"/>
@@ -3231,6 +3493,7 @@
     <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="2"/>
@@ -3238,6 +3501,7 @@
     <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="2"/>
@@ -3245,6 +3509,7 @@
     <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="2"/>
@@ -3252,6 +3517,7 @@
     <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="2"/>
@@ -3259,6 +3525,7 @@
     <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="2"/>
@@ -3266,6 +3533,7 @@
     <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="2"/>
@@ -3273,6 +3541,7 @@
     <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="2"/>
@@ -3280,6 +3549,7 @@
     <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="2"/>
@@ -3287,6 +3557,7 @@
     <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="2"/>
@@ -3294,6 +3565,7 @@
     <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="2"/>
@@ -3301,6 +3573,7 @@
     <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="2"/>
@@ -3308,6 +3581,7 @@
     <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="2"/>
@@ -3315,6 +3589,7 @@
     <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="2"/>
@@ -3322,6 +3597,7 @@
     <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="2"/>
@@ -3329,6 +3605,7 @@
     <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="2"/>
@@ -3336,6 +3613,7 @@
     <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="2"/>
@@ -3343,6 +3621,7 @@
     <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="2"/>
@@ -3350,6 +3629,7 @@
     <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="2"/>
@@ -3357,6 +3637,7 @@
     <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="2"/>
@@ -3364,6 +3645,7 @@
     <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="2"/>
@@ -3371,6 +3653,7 @@
     <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="2"/>
@@ -3378,6 +3661,7 @@
     <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="2"/>
@@ -3385,6 +3669,7 @@
     <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="2"/>
@@ -3392,6 +3677,7 @@
     <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="2"/>
@@ -3399,6 +3685,7 @@
     <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="2"/>
@@ -3406,6 +3693,7 @@
     <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="2"/>
@@ -3413,6 +3701,7 @@
     <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="2"/>
@@ -3420,6 +3709,7 @@
     <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="2"/>
@@ -3427,6 +3717,7 @@
     <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="2"/>
@@ -3434,6 +3725,7 @@
     <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="2"/>
@@ -3441,6 +3733,7 @@
     <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="2"/>
@@ -3448,6 +3741,7 @@
     <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="2"/>
@@ -3455,6 +3749,7 @@
     <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="2"/>
@@ -3462,6 +3757,7 @@
     <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="2"/>
@@ -3469,6 +3765,7 @@
     <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="2"/>
@@ -3476,6 +3773,7 @@
     <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="2"/>
@@ -3483,6 +3781,7 @@
     <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="2"/>
@@ -3490,6 +3789,7 @@
     <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="2"/>
@@ -3497,6 +3797,7 @@
     <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="2"/>
@@ -3504,6 +3805,7 @@
     <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="2"/>
@@ -3511,6 +3813,7 @@
     <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="2"/>
@@ -3518,6 +3821,7 @@
     <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="2"/>
@@ -3525,6 +3829,7 @@
     <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="2"/>
@@ -3532,6 +3837,7 @@
     <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="2"/>
@@ -3539,6 +3845,7 @@
     <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="2"/>
@@ -3546,6 +3853,7 @@
     <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="2"/>
@@ -3553,6 +3861,7 @@
     <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="2"/>
@@ -3560,6 +3869,7 @@
     <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="2"/>
@@ -3567,6 +3877,7 @@
     <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="2"/>
@@ -3574,6 +3885,7 @@
     <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="2"/>
@@ -3581,6 +3893,7 @@
     <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="2"/>
@@ -3588,6 +3901,7 @@
     <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="2"/>
@@ -3595,6 +3909,7 @@
     <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="2"/>
@@ -3602,6 +3917,7 @@
     <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="2"/>
@@ -3609,6 +3925,7 @@
     <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="2"/>
@@ -3616,6 +3933,7 @@
     <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="2"/>
@@ -3623,6 +3941,7 @@
     <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="2"/>
@@ -3630,6 +3949,7 @@
     <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="2"/>
@@ -3637,6 +3957,7 @@
     <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="2"/>
@@ -3644,6 +3965,7 @@
     <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="2"/>
@@ -3651,6 +3973,7 @@
     <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="2"/>
@@ -3658,6 +3981,7 @@
     <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="2"/>
@@ -3665,6 +3989,7 @@
     <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="2"/>
@@ -3672,6 +3997,7 @@
     <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="2"/>
@@ -3679,6 +4005,7 @@
     <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="2"/>
@@ -3686,6 +4013,7 @@
     <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="2"/>
@@ -3693,6 +4021,7 @@
     <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="2"/>
@@ -3700,6 +4029,7 @@
     <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="2"/>
@@ -3707,6 +4037,7 @@
     <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="2"/>
@@ -3714,6 +4045,7 @@
     <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="2"/>
@@ -3721,6 +4053,7 @@
     <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="2"/>
@@ -3728,6 +4061,7 @@
     <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="2"/>
@@ -3735,6 +4069,7 @@
     <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="2"/>
@@ -3742,6 +4077,7 @@
     <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="2"/>
@@ -3749,6 +4085,7 @@
     <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="2"/>
@@ -3756,6 +4093,7 @@
     <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="2"/>
@@ -3763,6 +4101,7 @@
     <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="2"/>
@@ -3770,6 +4109,7 @@
     <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="2"/>
@@ -3777,6 +4117,7 @@
     <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="2"/>
@@ -3784,6 +4125,7 @@
     <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="2"/>
@@ -3791,6 +4133,7 @@
     <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="2"/>
@@ -3798,6 +4141,7 @@
     <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="2"/>
@@ -3805,6 +4149,7 @@
     <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="2"/>
@@ -3812,6 +4157,7 @@
     <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="2"/>
@@ -3819,6 +4165,7 @@
     <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="2"/>
@@ -3826,6 +4173,7 @@
     <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="2"/>
@@ -3833,6 +4181,7 @@
     <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="2"/>
@@ -3840,6 +4189,7 @@
     <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="2"/>
@@ -3847,6 +4197,7 @@
     <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
       <c r="I424" s="2"/>
@@ -3854,6 +4205,7 @@
     <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
       <c r="I425" s="2"/>
@@ -3861,6 +4213,7 @@
     <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
       <c r="I426" s="2"/>
@@ -3868,6 +4221,7 @@
     <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
       <c r="I427" s="2"/>
@@ -3875,6 +4229,7 @@
     <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
       <c r="I428" s="2"/>
@@ -3882,6 +4237,7 @@
     <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="2"/>
@@ -3889,6 +4245,7 @@
     <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
       <c r="I430" s="2"/>
@@ -3896,6 +4253,7 @@
     <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="2"/>
@@ -3903,6 +4261,7 @@
     <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="2"/>
@@ -3910,6 +4269,7 @@
     <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="2"/>
@@ -3917,6 +4277,7 @@
     <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="2"/>
@@ -3924,6 +4285,7 @@
     <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="2"/>
@@ -3931,6 +4293,7 @@
     <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="2"/>
@@ -3938,6 +4301,7 @@
     <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="2"/>
@@ -3945,6 +4309,7 @@
     <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="2"/>
@@ -3952,6 +4317,7 @@
     <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="2"/>
@@ -3959,6 +4325,7 @@
     <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
       <c r="I440" s="2"/>
@@ -3966,6 +4333,7 @@
     <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
       <c r="I441" s="2"/>
@@ -3973,6 +4341,7 @@
     <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
       <c r="I442" s="2"/>
@@ -3980,6 +4349,7 @@
     <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="2"/>
@@ -3987,6 +4357,7 @@
     <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="2"/>
@@ -3994,6 +4365,7 @@
     <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="2"/>
@@ -4001,6 +4373,7 @@
     <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="2"/>
@@ -4008,6 +4381,7 @@
     <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
       <c r="I447" s="2"/>
@@ -4015,6 +4389,7 @@
     <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="2"/>
@@ -4022,6 +4397,7 @@
     <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="2"/>
@@ -4029,6 +4405,7 @@
     <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="2"/>
@@ -4036,6 +4413,7 @@
     <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="2"/>
@@ -4043,6 +4421,7 @@
     <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
       <c r="I452" s="2"/>
@@ -4050,6 +4429,7 @@
     <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="2"/>
@@ -4057,6 +4437,7 @@
     <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
       <c r="I454" s="2"/>
@@ -4064,6 +4445,7 @@
     <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="2"/>
@@ -4071,6 +4453,7 @@
     <row r="456" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
       <c r="I456" s="2"/>
@@ -4078,6 +4461,7 @@
     <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="2"/>
@@ -4085,6 +4469,7 @@
     <row r="458" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
       <c r="I458" s="2"/>
@@ -4092,6 +4477,7 @@
     <row r="459" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="2"/>
@@ -4099,6 +4485,7 @@
     <row r="460" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
       <c r="I460" s="2"/>
@@ -4106,6 +4493,7 @@
     <row r="461" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
       <c r="I461" s="2"/>
@@ -4113,6 +4501,7 @@
     <row r="462" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
       <c r="I462" s="2"/>
@@ -4120,6 +4509,7 @@
     <row r="463" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
       <c r="I463" s="2"/>
@@ -4127,6 +4517,7 @@
     <row r="464" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
       <c r="I464" s="2"/>
@@ -4134,6 +4525,7 @@
     <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
       <c r="I465" s="2"/>
@@ -4141,6 +4533,7 @@
     <row r="466" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
       <c r="I466" s="2"/>
@@ -4148,6 +4541,7 @@
     <row r="467" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
       <c r="I467" s="2"/>
@@ -4155,6 +4549,7 @@
     <row r="468" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
       <c r="I468" s="2"/>
@@ -4162,6 +4557,7 @@
     <row r="469" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
       <c r="I469" s="2"/>
@@ -4169,6 +4565,7 @@
     <row r="470" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
       <c r="I470" s="2"/>
@@ -4176,6 +4573,7 @@
     <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
       <c r="I471" s="2"/>
@@ -4183,6 +4581,7 @@
     <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
       <c r="I472" s="2"/>
@@ -4190,6 +4589,7 @@
     <row r="473" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
       <c r="I473" s="2"/>
@@ -4197,6 +4597,7 @@
     <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
       <c r="I474" s="2"/>
@@ -4204,6 +4605,7 @@
     <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
       <c r="I475" s="2"/>
@@ -4211,6 +4613,7 @@
     <row r="476" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
       <c r="I476" s="2"/>
@@ -4218,6 +4621,7 @@
     <row r="477" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
       <c r="I477" s="2"/>
@@ -4225,6 +4629,7 @@
     <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
       <c r="I478" s="2"/>
@@ -4232,6 +4637,7 @@
     <row r="479" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
       <c r="I479" s="2"/>
@@ -4239,6 +4645,7 @@
     <row r="480" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
       <c r="I480" s="2"/>
@@ -4246,6 +4653,7 @@
     <row r="481" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
       <c r="I481" s="2"/>
@@ -4253,6 +4661,7 @@
     <row r="482" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
       <c r="I482" s="2"/>
@@ -4260,6 +4669,7 @@
     <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
       <c r="I483" s="2"/>
@@ -4267,6 +4677,7 @@
     <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
       <c r="I484" s="2"/>
@@ -4274,6 +4685,7 @@
     <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
       <c r="I485" s="2"/>
@@ -4281,6 +4693,7 @@
     <row r="486" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
       <c r="I486" s="2"/>
@@ -4288,6 +4701,7 @@
     <row r="487" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
       <c r="I487" s="2"/>
@@ -4295,6 +4709,7 @@
     <row r="488" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
       <c r="I488" s="2"/>
@@ -4302,6 +4717,7 @@
     <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
       <c r="I489" s="2"/>
@@ -4309,6 +4725,7 @@
     <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
       <c r="I490" s="2"/>
@@ -4316,6 +4733,7 @@
     <row r="491" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
       <c r="I491" s="2"/>
@@ -4323,6 +4741,7 @@
     <row r="492" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
       <c r="I492" s="2"/>
@@ -4330,6 +4749,7 @@
     <row r="493" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
       <c r="I493" s="2"/>
@@ -4337,6 +4757,7 @@
     <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
       <c r="I494" s="2"/>
@@ -4344,6 +4765,7 @@
     <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
       <c r="I495" s="2"/>
@@ -4351,6 +4773,7 @@
     <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
       <c r="I496" s="2"/>
@@ -4358,6 +4781,7 @@
     <row r="497" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
       <c r="I497" s="2"/>
@@ -4365,6 +4789,7 @@
     <row r="498" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
       <c r="I498" s="2"/>
@@ -4372,6 +4797,7 @@
     <row r="499" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
       <c r="I499" s="2"/>
@@ -4379,6 +4805,7 @@
     <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
       <c r="I500" s="2"/>
@@ -4386,6 +4813,7 @@
     <row r="501" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
       <c r="I501" s="2"/>
@@ -4393,6 +4821,7 @@
     <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
       <c r="I502" s="2"/>
@@ -4400,6 +4829,7 @@
     <row r="503" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
       <c r="I503" s="2"/>
@@ -4407,6 +4837,7 @@
     <row r="504" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
       <c r="I504" s="2"/>
@@ -4414,6 +4845,7 @@
     <row r="505" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
       <c r="I505" s="2"/>
@@ -4421,6 +4853,7 @@
     <row r="506" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
       <c r="I506" s="2"/>
@@ -4428,6 +4861,7 @@
     <row r="507" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
       <c r="I507" s="2"/>
@@ -4435,6 +4869,7 @@
     <row r="508" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
       <c r="I508" s="2"/>
@@ -4442,6 +4877,7 @@
     <row r="509" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
+      <c r="D509" s="1"/>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
       <c r="I509" s="2"/>
@@ -4449,6 +4885,7 @@
     <row r="510" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
       <c r="I510" s="2"/>
@@ -4456,6 +4893,7 @@
     <row r="511" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
       <c r="I511" s="2"/>
@@ -4463,6 +4901,7 @@
     <row r="512" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
+      <c r="D512" s="1"/>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
       <c r="I512" s="2"/>
@@ -4470,6 +4909,7 @@
     <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
       <c r="I513" s="2"/>
@@ -4477,6 +4917,7 @@
     <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
       <c r="I514" s="2"/>
@@ -4484,6 +4925,7 @@
     <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
       <c r="I515" s="2"/>
@@ -4491,6 +4933,7 @@
     <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
       <c r="I516" s="2"/>
@@ -4498,6 +4941,7 @@
     <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
+      <c r="D517" s="1"/>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
       <c r="I517" s="2"/>
@@ -4505,6 +4949,7 @@
     <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
       <c r="I518" s="2"/>
@@ -4512,6 +4957,7 @@
     <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
       <c r="I519" s="2"/>
@@ -4519,6 +4965,7 @@
     <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
       <c r="I520" s="2"/>
@@ -4526,6 +4973,7 @@
     <row r="521" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
       <c r="I521" s="2"/>
@@ -4533,6 +4981,7 @@
     <row r="522" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
       <c r="I522" s="2"/>
@@ -4540,6 +4989,7 @@
     <row r="523" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
       <c r="I523" s="2"/>
@@ -4547,6 +4997,7 @@
     <row r="524" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
       <c r="I524" s="2"/>
@@ -4554,6 +5005,7 @@
     <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
       <c r="I525" s="2"/>
@@ -4561,6 +5013,7 @@
     <row r="526" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
+      <c r="D526" s="1"/>
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
       <c r="I526" s="2"/>
@@ -4568,6 +5021,7 @@
     <row r="527" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
       <c r="I527" s="2"/>
@@ -4575,6 +5029,7 @@
     <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
+      <c r="D528" s="1"/>
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
       <c r="I528" s="2"/>
@@ -4582,6 +5037,7 @@
     <row r="529" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
+      <c r="D529" s="1"/>
       <c r="G529" s="1"/>
       <c r="H529" s="1"/>
       <c r="I529" s="2"/>
@@ -4589,6 +5045,7 @@
     <row r="530" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
+      <c r="D530" s="1"/>
       <c r="G530" s="1"/>
       <c r="H530" s="1"/>
       <c r="I530" s="2"/>
@@ -4596,6 +5053,7 @@
     <row r="531" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
       <c r="I531" s="2"/>
@@ -4603,6 +5061,7 @@
     <row r="532" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
       <c r="I532" s="2"/>
@@ -4610,6 +5069,7 @@
     <row r="533" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
       <c r="G533" s="1"/>
       <c r="H533" s="1"/>
       <c r="I533" s="2"/>
@@ -4617,6 +5077,7 @@
     <row r="534" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
+      <c r="D534" s="1"/>
       <c r="G534" s="1"/>
       <c r="H534" s="1"/>
       <c r="I534" s="2"/>
@@ -4624,6 +5085,7 @@
     <row r="535" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
+      <c r="D535" s="1"/>
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
       <c r="I535" s="2"/>
@@ -4631,6 +5093,7 @@
     <row r="536" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
       <c r="I536" s="2"/>
@@ -4638,6 +5101,7 @@
     <row r="537" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
+      <c r="D537" s="1"/>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
       <c r="I537" s="2"/>
@@ -4645,6 +5109,7 @@
     <row r="538" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
       <c r="I538" s="2"/>
@@ -4652,6 +5117,7 @@
     <row r="539" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
+      <c r="D539" s="1"/>
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
       <c r="I539" s="2"/>
@@ -4659,6 +5125,7 @@
     <row r="540" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
+      <c r="D540" s="1"/>
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
       <c r="I540" s="2"/>
@@ -4666,6 +5133,7 @@
     <row r="541" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
+      <c r="D541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
       <c r="I541" s="2"/>
@@ -4673,6 +5141,7 @@
     <row r="542" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
       <c r="I542" s="2"/>
@@ -4680,6 +5149,7 @@
     <row r="543" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
+      <c r="D543" s="1"/>
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
       <c r="I543" s="2"/>
@@ -4687,6 +5157,7 @@
     <row r="544" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
       <c r="I544" s="2"/>
@@ -4694,6 +5165,7 @@
     <row r="545" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
       <c r="G545" s="1"/>
       <c r="H545" s="1"/>
       <c r="I545" s="2"/>
@@ -4701,6 +5173,7 @@
     <row r="546" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
+      <c r="D546" s="1"/>
       <c r="G546" s="1"/>
       <c r="H546" s="1"/>
       <c r="I546" s="2"/>
@@ -4708,6 +5181,7 @@
     <row r="547" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
+      <c r="D547" s="1"/>
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
       <c r="I547" s="2"/>
@@ -4715,6 +5189,7 @@
     <row r="548" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
+      <c r="D548" s="1"/>
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
       <c r="I548" s="2"/>
@@ -4722,6 +5197,7 @@
     <row r="549" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
+      <c r="D549" s="1"/>
       <c r="G549" s="1"/>
       <c r="H549" s="1"/>
       <c r="I549" s="2"/>
@@ -4729,6 +5205,7 @@
     <row r="550" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
       <c r="G550" s="1"/>
       <c r="H550" s="1"/>
       <c r="I550" s="2"/>
@@ -4736,6 +5213,7 @@
     <row r="551" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
+      <c r="D551" s="1"/>
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
       <c r="I551" s="2"/>
@@ -4743,6 +5221,7 @@
     <row r="552" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
+      <c r="D552" s="1"/>
       <c r="G552" s="1"/>
       <c r="H552" s="1"/>
       <c r="I552" s="2"/>
@@ -4750,6 +5229,7 @@
     <row r="553" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
+      <c r="D553" s="1"/>
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
       <c r="I553" s="2"/>
@@ -4757,6 +5237,7 @@
     <row r="554" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
+      <c r="D554" s="1"/>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
       <c r="I554" s="2"/>
@@ -4764,6 +5245,7 @@
     <row r="555" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
       <c r="I555" s="2"/>
@@ -4771,6 +5253,7 @@
     <row r="556" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
       <c r="I556" s="2"/>
@@ -4778,6 +5261,7 @@
     <row r="557" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
       <c r="I557" s="2"/>
@@ -4785,6 +5269,7 @@
     <row r="558" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
       <c r="I558" s="2"/>
@@ -4792,6 +5277,7 @@
     <row r="559" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
+      <c r="D559" s="1"/>
       <c r="G559" s="1"/>
       <c r="H559" s="1"/>
       <c r="I559" s="2"/>
@@ -4799,6 +5285,7 @@
     <row r="560" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
+      <c r="D560" s="1"/>
       <c r="G560" s="1"/>
       <c r="H560" s="1"/>
       <c r="I560" s="2"/>
@@ -4806,6 +5293,7 @@
     <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
       <c r="I561" s="2"/>
@@ -4813,6 +5301,7 @@
     <row r="562" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
+      <c r="D562" s="1"/>
       <c r="G562" s="1"/>
       <c r="H562" s="1"/>
       <c r="I562" s="2"/>
@@ -4820,6 +5309,7 @@
     <row r="563" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
       <c r="I563" s="2"/>
@@ -4827,6 +5317,7 @@
     <row r="564" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
+      <c r="D564" s="1"/>
       <c r="G564" s="1"/>
       <c r="H564" s="1"/>
       <c r="I564" s="2"/>
@@ -4834,6 +5325,7 @@
     <row r="565" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
+      <c r="D565" s="1"/>
       <c r="G565" s="1"/>
       <c r="H565" s="1"/>
       <c r="I565" s="2"/>
@@ -4841,6 +5333,7 @@
     <row r="566" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
       <c r="I566" s="2"/>
@@ -4848,6 +5341,7 @@
     <row r="567" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
       <c r="I567" s="2"/>
@@ -4855,6 +5349,7 @@
     <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
+      <c r="D568" s="1"/>
       <c r="G568" s="1"/>
       <c r="H568" s="1"/>
       <c r="I568" s="2"/>
@@ -4862,6 +5357,7 @@
     <row r="569" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
+      <c r="D569" s="1"/>
       <c r="G569" s="1"/>
       <c r="H569" s="1"/>
       <c r="I569" s="2"/>
@@ -4869,6 +5365,7 @@
     <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
       <c r="I570" s="2"/>
@@ -4876,6 +5373,7 @@
     <row r="571" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
+      <c r="D571" s="1"/>
       <c r="G571" s="1"/>
       <c r="H571" s="1"/>
       <c r="I571" s="2"/>
@@ -4883,6 +5381,7 @@
     <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
+      <c r="D572" s="1"/>
       <c r="G572" s="1"/>
       <c r="H572" s="1"/>
       <c r="I572" s="2"/>
@@ -4890,6 +5389,7 @@
     <row r="573" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
+      <c r="D573" s="1"/>
       <c r="G573" s="1"/>
       <c r="H573" s="1"/>
       <c r="I573" s="2"/>
@@ -4897,6 +5397,7 @@
     <row r="574" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
+      <c r="D574" s="1"/>
       <c r="G574" s="1"/>
       <c r="H574" s="1"/>
       <c r="I574" s="2"/>
@@ -4904,6 +5405,7 @@
     <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
       <c r="G575" s="1"/>
       <c r="H575" s="1"/>
       <c r="I575" s="2"/>
@@ -4911,6 +5413,7 @@
     <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
+      <c r="D576" s="1"/>
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
       <c r="I576" s="2"/>
@@ -4918,6 +5421,7 @@
     <row r="577" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
       <c r="I577" s="2"/>
@@ -4925,6 +5429,7 @@
     <row r="578" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
+      <c r="D578" s="1"/>
       <c r="G578" s="1"/>
       <c r="H578" s="1"/>
       <c r="I578" s="2"/>
@@ -4932,6 +5437,7 @@
     <row r="579" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
+      <c r="D579" s="1"/>
       <c r="G579" s="1"/>
       <c r="H579" s="1"/>
       <c r="I579" s="2"/>
@@ -4939,6 +5445,7 @@
     <row r="580" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
+      <c r="D580" s="1"/>
       <c r="G580" s="1"/>
       <c r="H580" s="1"/>
       <c r="I580" s="2"/>
@@ -4946,6 +5453,7 @@
     <row r="581" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
+      <c r="D581" s="1"/>
       <c r="G581" s="1"/>
       <c r="H581" s="1"/>
       <c r="I581" s="2"/>
@@ -4953,6 +5461,7 @@
     <row r="582" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
       <c r="I582" s="2"/>
@@ -4960,6 +5469,7 @@
     <row r="583" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
+      <c r="D583" s="1"/>
       <c r="G583" s="1"/>
       <c r="H583" s="1"/>
       <c r="I583" s="2"/>
@@ -4967,6 +5477,7 @@
     <row r="584" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
+      <c r="D584" s="1"/>
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
       <c r="I584" s="2"/>
@@ -4974,6 +5485,7 @@
     <row r="585" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
+      <c r="D585" s="1"/>
       <c r="G585" s="1"/>
       <c r="H585" s="1"/>
       <c r="I585" s="2"/>
@@ -4981,6 +5493,7 @@
     <row r="586" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
+      <c r="D586" s="1"/>
       <c r="G586" s="1"/>
       <c r="H586" s="1"/>
       <c r="I586" s="2"/>
@@ -4988,6 +5501,7 @@
     <row r="587" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
+      <c r="D587" s="1"/>
       <c r="G587" s="1"/>
       <c r="H587" s="1"/>
       <c r="I587" s="2"/>
@@ -4995,6 +5509,7 @@
     <row r="588" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
       <c r="G588" s="1"/>
       <c r="H588" s="1"/>
       <c r="I588" s="2"/>
@@ -5002,6 +5517,7 @@
     <row r="589" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
+      <c r="D589" s="1"/>
       <c r="G589" s="1"/>
       <c r="H589" s="1"/>
       <c r="I589" s="2"/>
@@ -5009,6 +5525,7 @@
     <row r="590" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
+      <c r="D590" s="1"/>
       <c r="G590" s="1"/>
       <c r="H590" s="1"/>
       <c r="I590" s="2"/>
@@ -5016,6 +5533,7 @@
     <row r="591" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
       <c r="G591" s="1"/>
       <c r="H591" s="1"/>
       <c r="I591" s="2"/>
@@ -5023,6 +5541,7 @@
     <row r="592" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
       <c r="G592" s="1"/>
       <c r="H592" s="1"/>
       <c r="I592" s="2"/>
@@ -5030,6 +5549,7 @@
     <row r="593" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
       <c r="G593" s="1"/>
       <c r="H593" s="1"/>
       <c r="I593" s="2"/>
@@ -5037,6 +5557,7 @@
     <row r="594" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
       <c r="G594" s="1"/>
       <c r="H594" s="1"/>
       <c r="I594" s="2"/>
@@ -5044,6 +5565,7 @@
     <row r="595" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
       <c r="G595" s="1"/>
       <c r="H595" s="1"/>
       <c r="I595" s="2"/>
@@ -5051,6 +5573,7 @@
     <row r="596" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
       <c r="G596" s="1"/>
       <c r="H596" s="1"/>
       <c r="I596" s="2"/>
@@ -5058,6 +5581,7 @@
     <row r="597" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
       <c r="G597" s="1"/>
       <c r="H597" s="1"/>
       <c r="I597" s="2"/>
@@ -5065,6 +5589,7 @@
     <row r="598" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
       <c r="G598" s="1"/>
       <c r="H598" s="1"/>
       <c r="I598" s="2"/>
@@ -5072,6 +5597,7 @@
     <row r="599" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
+      <c r="D599" s="1"/>
       <c r="G599" s="1"/>
       <c r="H599" s="1"/>
       <c r="I599" s="2"/>
@@ -5079,6 +5605,7 @@
     <row r="600" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
+      <c r="D600" s="1"/>
       <c r="G600" s="1"/>
       <c r="H600" s="1"/>
       <c r="I600" s="2"/>
@@ -5086,6 +5613,7 @@
     <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
       <c r="G601" s="1"/>
       <c r="H601" s="1"/>
       <c r="I601" s="2"/>
@@ -5093,6 +5621,7 @@
     <row r="602" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
+      <c r="D602" s="1"/>
       <c r="G602" s="1"/>
       <c r="H602" s="1"/>
       <c r="I602" s="2"/>
@@ -5100,6 +5629,7 @@
     <row r="603" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
+      <c r="D603" s="1"/>
       <c r="G603" s="1"/>
       <c r="H603" s="1"/>
       <c r="I603" s="2"/>
@@ -5107,6 +5637,7 @@
     <row r="604" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
+      <c r="D604" s="1"/>
       <c r="G604" s="1"/>
       <c r="H604" s="1"/>
       <c r="I604" s="2"/>
@@ -5114,6 +5645,7 @@
     <row r="605" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
+      <c r="D605" s="1"/>
       <c r="G605" s="1"/>
       <c r="H605" s="1"/>
       <c r="I605" s="2"/>
@@ -5121,6 +5653,7 @@
     <row r="606" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
+      <c r="D606" s="1"/>
       <c r="G606" s="1"/>
       <c r="H606" s="1"/>
       <c r="I606" s="2"/>
@@ -5128,6 +5661,7 @@
     <row r="607" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
+      <c r="D607" s="1"/>
       <c r="G607" s="1"/>
       <c r="H607" s="1"/>
       <c r="I607" s="2"/>
@@ -5135,6 +5669,7 @@
     <row r="608" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
+      <c r="D608" s="1"/>
       <c r="G608" s="1"/>
       <c r="H608" s="1"/>
       <c r="I608" s="2"/>
@@ -5142,6 +5677,7 @@
     <row r="609" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
+      <c r="D609" s="1"/>
       <c r="G609" s="1"/>
       <c r="H609" s="1"/>
       <c r="I609" s="2"/>
@@ -5149,6 +5685,7 @@
     <row r="610" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
+      <c r="D610" s="1"/>
       <c r="G610" s="1"/>
       <c r="H610" s="1"/>
       <c r="I610" s="2"/>
@@ -5156,6 +5693,7 @@
     <row r="611" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
+      <c r="D611" s="1"/>
       <c r="G611" s="1"/>
       <c r="H611" s="1"/>
       <c r="I611" s="2"/>
@@ -5163,6 +5701,7 @@
     <row r="612" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
+      <c r="D612" s="1"/>
       <c r="G612" s="1"/>
       <c r="H612" s="1"/>
       <c r="I612" s="2"/>
@@ -5170,6 +5709,7 @@
     <row r="613" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
+      <c r="D613" s="1"/>
       <c r="G613" s="1"/>
       <c r="H613" s="1"/>
       <c r="I613" s="2"/>
@@ -5177,6 +5717,7 @@
     <row r="614" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
+      <c r="D614" s="1"/>
       <c r="G614" s="1"/>
       <c r="H614" s="1"/>
       <c r="I614" s="2"/>
@@ -5184,6 +5725,7 @@
     <row r="615" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
+      <c r="D615" s="1"/>
       <c r="G615" s="1"/>
       <c r="H615" s="1"/>
       <c r="I615" s="2"/>
@@ -5191,6 +5733,7 @@
     <row r="616" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
+      <c r="D616" s="1"/>
       <c r="G616" s="1"/>
       <c r="H616" s="1"/>
       <c r="I616" s="2"/>
@@ -5198,6 +5741,7 @@
     <row r="617" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
+      <c r="D617" s="1"/>
       <c r="G617" s="1"/>
       <c r="H617" s="1"/>
       <c r="I617" s="2"/>
@@ -5205,6 +5749,7 @@
     <row r="618" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
+      <c r="D618" s="1"/>
       <c r="G618" s="1"/>
       <c r="H618" s="1"/>
       <c r="I618" s="2"/>
@@ -5212,6 +5757,7 @@
     <row r="619" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
+      <c r="D619" s="1"/>
       <c r="G619" s="1"/>
       <c r="H619" s="1"/>
       <c r="I619" s="2"/>
@@ -5219,6 +5765,7 @@
     <row r="620" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
+      <c r="D620" s="1"/>
       <c r="G620" s="1"/>
       <c r="H620" s="1"/>
       <c r="I620" s="2"/>
@@ -5226,6 +5773,7 @@
     <row r="621" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
+      <c r="D621" s="1"/>
       <c r="G621" s="1"/>
       <c r="H621" s="1"/>
       <c r="I621" s="2"/>
@@ -5233,6 +5781,7 @@
     <row r="622" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
+      <c r="D622" s="1"/>
       <c r="G622" s="1"/>
       <c r="H622" s="1"/>
       <c r="I622" s="2"/>
@@ -5240,6 +5789,7 @@
     <row r="623" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
+      <c r="D623" s="1"/>
       <c r="G623" s="1"/>
       <c r="H623" s="1"/>
       <c r="I623" s="2"/>
@@ -5247,6 +5797,7 @@
     <row r="624" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
+      <c r="D624" s="1"/>
       <c r="G624" s="1"/>
       <c r="H624" s="1"/>
       <c r="I624" s="2"/>
@@ -5254,6 +5805,7 @@
     <row r="625" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
+      <c r="D625" s="1"/>
       <c r="G625" s="1"/>
       <c r="H625" s="1"/>
       <c r="I625" s="2"/>
@@ -5261,6 +5813,7 @@
     <row r="626" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
+      <c r="D626" s="1"/>
       <c r="G626" s="1"/>
       <c r="H626" s="1"/>
       <c r="I626" s="2"/>
@@ -5268,6 +5821,7 @@
     <row r="627" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
+      <c r="D627" s="1"/>
       <c r="G627" s="1"/>
       <c r="H627" s="1"/>
       <c r="I627" s="2"/>
@@ -5275,6 +5829,7 @@
     <row r="628" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
+      <c r="D628" s="1"/>
       <c r="G628" s="1"/>
       <c r="H628" s="1"/>
       <c r="I628" s="2"/>
@@ -5282,6 +5837,7 @@
     <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
+      <c r="D629" s="1"/>
       <c r="G629" s="1"/>
       <c r="H629" s="1"/>
       <c r="I629" s="2"/>
@@ -5289,6 +5845,7 @@
     <row r="630" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
+      <c r="D630" s="1"/>
       <c r="G630" s="1"/>
       <c r="H630" s="1"/>
       <c r="I630" s="2"/>
@@ -5296,6 +5853,7 @@
     <row r="631" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
+      <c r="D631" s="1"/>
       <c r="G631" s="1"/>
       <c r="H631" s="1"/>
       <c r="I631" s="2"/>
@@ -5303,6 +5861,7 @@
     <row r="632" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
+      <c r="D632" s="1"/>
       <c r="G632" s="1"/>
       <c r="H632" s="1"/>
       <c r="I632" s="2"/>
@@ -5310,6 +5869,7 @@
     <row r="633" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
+      <c r="D633" s="1"/>
       <c r="G633" s="1"/>
       <c r="H633" s="1"/>
       <c r="I633" s="2"/>
@@ -5317,6 +5877,7 @@
     <row r="634" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
+      <c r="D634" s="1"/>
       <c r="G634" s="1"/>
       <c r="H634" s="1"/>
       <c r="I634" s="2"/>
@@ -5324,6 +5885,7 @@
     <row r="635" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
+      <c r="D635" s="1"/>
       <c r="G635" s="1"/>
       <c r="H635" s="1"/>
       <c r="I635" s="2"/>
@@ -5331,6 +5893,7 @@
     <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
+      <c r="D636" s="1"/>
       <c r="G636" s="1"/>
       <c r="H636" s="1"/>
       <c r="I636" s="2"/>
@@ -5338,6 +5901,7 @@
     <row r="637" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
+      <c r="D637" s="1"/>
       <c r="G637" s="1"/>
       <c r="H637" s="1"/>
       <c r="I637" s="2"/>
@@ -5345,6 +5909,7 @@
     <row r="638" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
+      <c r="D638" s="1"/>
       <c r="G638" s="1"/>
       <c r="H638" s="1"/>
       <c r="I638" s="2"/>
@@ -5352,6 +5917,7 @@
     <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
+      <c r="D639" s="1"/>
       <c r="G639" s="1"/>
       <c r="H639" s="1"/>
       <c r="I639" s="2"/>
@@ -5359,6 +5925,7 @@
     <row r="640" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
+      <c r="D640" s="1"/>
       <c r="G640" s="1"/>
       <c r="H640" s="1"/>
       <c r="I640" s="2"/>
@@ -5366,6 +5933,7 @@
     <row r="641" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
+      <c r="D641" s="1"/>
       <c r="G641" s="1"/>
       <c r="H641" s="1"/>
       <c r="I641" s="2"/>
@@ -5373,6 +5941,7 @@
     <row r="642" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
+      <c r="D642" s="1"/>
       <c r="G642" s="1"/>
       <c r="H642" s="1"/>
       <c r="I642" s="2"/>
@@ -5380,6 +5949,7 @@
     <row r="643" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
+      <c r="D643" s="1"/>
       <c r="G643" s="1"/>
       <c r="H643" s="1"/>
       <c r="I643" s="2"/>
@@ -5387,6 +5957,7 @@
     <row r="644" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
+      <c r="D644" s="1"/>
       <c r="G644" s="1"/>
       <c r="H644" s="1"/>
       <c r="I644" s="2"/>
@@ -5394,6 +5965,7 @@
     <row r="645" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
+      <c r="D645" s="1"/>
       <c r="G645" s="1"/>
       <c r="H645" s="1"/>
       <c r="I645" s="2"/>
@@ -5401,6 +5973,7 @@
     <row r="646" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
+      <c r="D646" s="1"/>
       <c r="G646" s="1"/>
       <c r="H646" s="1"/>
       <c r="I646" s="2"/>
@@ -5408,6 +5981,7 @@
     <row r="647" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
+      <c r="D647" s="1"/>
       <c r="G647" s="1"/>
       <c r="H647" s="1"/>
       <c r="I647" s="2"/>
@@ -5415,6 +5989,7 @@
     <row r="648" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
+      <c r="D648" s="1"/>
       <c r="G648" s="1"/>
       <c r="H648" s="1"/>
       <c r="I648" s="2"/>
@@ -5422,6 +5997,7 @@
     <row r="649" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
+      <c r="D649" s="1"/>
       <c r="G649" s="1"/>
       <c r="H649" s="1"/>
       <c r="I649" s="2"/>
@@ -5429,6 +6005,7 @@
     <row r="650" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
+      <c r="D650" s="1"/>
       <c r="G650" s="1"/>
       <c r="H650" s="1"/>
       <c r="I650" s="2"/>
@@ -5436,6 +6013,7 @@
     <row r="651" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
+      <c r="D651" s="1"/>
       <c r="G651" s="1"/>
       <c r="H651" s="1"/>
       <c r="I651" s="2"/>
@@ -5443,6 +6021,7 @@
     <row r="652" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
+      <c r="D652" s="1"/>
       <c r="G652" s="1"/>
       <c r="H652" s="1"/>
       <c r="I652" s="2"/>
@@ -5450,6 +6029,7 @@
     <row r="653" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
+      <c r="D653" s="1"/>
       <c r="G653" s="1"/>
       <c r="H653" s="1"/>
       <c r="I653" s="2"/>
@@ -5457,6 +6037,7 @@
     <row r="654" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
+      <c r="D654" s="1"/>
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
       <c r="I654" s="2"/>
@@ -5464,6 +6045,7 @@
     <row r="655" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
+      <c r="D655" s="1"/>
       <c r="G655" s="1"/>
       <c r="H655" s="1"/>
       <c r="I655" s="2"/>
@@ -5471,6 +6053,7 @@
     <row r="656" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
+      <c r="D656" s="1"/>
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
       <c r="I656" s="2"/>
@@ -5478,6 +6061,7 @@
     <row r="657" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
+      <c r="D657" s="1"/>
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
       <c r="I657" s="2"/>
@@ -5485,6 +6069,7 @@
     <row r="658" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
+      <c r="D658" s="1"/>
       <c r="G658" s="1"/>
       <c r="H658" s="1"/>
       <c r="I658" s="2"/>
@@ -5492,6 +6077,7 @@
     <row r="659" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
+      <c r="D659" s="1"/>
       <c r="G659" s="1"/>
       <c r="H659" s="1"/>
       <c r="I659" s="2"/>
@@ -5499,6 +6085,7 @@
     <row r="660" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
+      <c r="D660" s="1"/>
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
       <c r="I660" s="2"/>
@@ -5506,6 +6093,7 @@
     <row r="661" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
+      <c r="D661" s="1"/>
       <c r="G661" s="1"/>
       <c r="H661" s="1"/>
       <c r="I661" s="2"/>
@@ -5513,6 +6101,7 @@
     <row r="662" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
+      <c r="D662" s="1"/>
       <c r="G662" s="1"/>
       <c r="H662" s="1"/>
       <c r="I662" s="2"/>
@@ -5520,6 +6109,7 @@
     <row r="663" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
+      <c r="D663" s="1"/>
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
       <c r="I663" s="2"/>
@@ -5527,6 +6117,7 @@
     <row r="664" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
+      <c r="D664" s="1"/>
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
       <c r="I664" s="2"/>
@@ -5534,6 +6125,7 @@
     <row r="665" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
+      <c r="D665" s="1"/>
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
       <c r="I665" s="2"/>
@@ -5541,6 +6133,7 @@
     <row r="666" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
+      <c r="D666" s="1"/>
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
       <c r="I666" s="2"/>
@@ -5548,6 +6141,7 @@
     <row r="667" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
+      <c r="D667" s="1"/>
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
       <c r="I667" s="2"/>
@@ -5555,6 +6149,7 @@
     <row r="668" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
+      <c r="D668" s="1"/>
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
       <c r="I668" s="2"/>
@@ -5562,6 +6157,7 @@
     <row r="669" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
+      <c r="D669" s="1"/>
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
       <c r="I669" s="2"/>
@@ -5569,6 +6165,7 @@
     <row r="670" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
+      <c r="D670" s="1"/>
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
       <c r="I670" s="2"/>
@@ -5576,6 +6173,7 @@
     <row r="671" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
+      <c r="D671" s="1"/>
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
       <c r="I671" s="2"/>
@@ -5583,6 +6181,7 @@
     <row r="672" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
+      <c r="D672" s="1"/>
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
       <c r="I672" s="2"/>
@@ -5590,6 +6189,7 @@
     <row r="673" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
+      <c r="D673" s="1"/>
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
       <c r="I673" s="2"/>
@@ -5597,6 +6197,7 @@
     <row r="674" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
+      <c r="D674" s="1"/>
       <c r="G674" s="1"/>
       <c r="H674" s="1"/>
       <c r="I674" s="2"/>
@@ -5604,6 +6205,7 @@
     <row r="675" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
+      <c r="D675" s="1"/>
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
       <c r="I675" s="2"/>
@@ -5611,6 +6213,7 @@
     <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
+      <c r="D676" s="1"/>
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
       <c r="I676" s="2"/>
@@ -5618,6 +6221,7 @@
     <row r="677" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
+      <c r="D677" s="1"/>
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
       <c r="I677" s="2"/>
@@ -5625,6 +6229,7 @@
     <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
+      <c r="D678" s="1"/>
       <c r="G678" s="1"/>
       <c r="H678" s="1"/>
       <c r="I678" s="2"/>
@@ -5632,6 +6237,7 @@
     <row r="679" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
+      <c r="D679" s="1"/>
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
       <c r="I679" s="2"/>
@@ -5639,6 +6245,7 @@
     <row r="680" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
+      <c r="D680" s="1"/>
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
       <c r="I680" s="2"/>
@@ -5646,6 +6253,7 @@
     <row r="681" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
+      <c r="D681" s="1"/>
       <c r="G681" s="1"/>
       <c r="H681" s="1"/>
       <c r="I681" s="2"/>
@@ -5653,6 +6261,7 @@
     <row r="682" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
+      <c r="D682" s="1"/>
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
       <c r="I682" s="2"/>
@@ -5660,6 +6269,7 @@
     <row r="683" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
+      <c r="D683" s="1"/>
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
       <c r="I683" s="2"/>
@@ -5667,6 +6277,7 @@
     <row r="684" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
+      <c r="D684" s="1"/>
       <c r="G684" s="1"/>
       <c r="H684" s="1"/>
       <c r="I684" s="2"/>
@@ -5674,6 +6285,7 @@
     <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
+      <c r="D685" s="1"/>
       <c r="G685" s="1"/>
       <c r="H685" s="1"/>
       <c r="I685" s="2"/>
@@ -5681,6 +6293,7 @@
     <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
+      <c r="D686" s="1"/>
       <c r="G686" s="1"/>
       <c r="H686" s="1"/>
       <c r="I686" s="2"/>
@@ -5688,6 +6301,7 @@
     <row r="687" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
+      <c r="D687" s="1"/>
       <c r="G687" s="1"/>
       <c r="H687" s="1"/>
       <c r="I687" s="2"/>
@@ -5695,6 +6309,7 @@
     <row r="688" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
+      <c r="D688" s="1"/>
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
       <c r="I688" s="2"/>
@@ -5702,6 +6317,7 @@
     <row r="689" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
+      <c r="D689" s="1"/>
       <c r="G689" s="1"/>
       <c r="H689" s="1"/>
       <c r="I689" s="2"/>
@@ -5709,6 +6325,7 @@
     <row r="690" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
+      <c r="D690" s="1"/>
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
       <c r="I690" s="2"/>
@@ -5716,6 +6333,7 @@
     <row r="691" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
+      <c r="D691" s="1"/>
       <c r="G691" s="1"/>
       <c r="H691" s="1"/>
       <c r="I691" s="2"/>
@@ -5723,6 +6341,7 @@
     <row r="692" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
+      <c r="D692" s="1"/>
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
       <c r="I692" s="2"/>
@@ -5730,6 +6349,7 @@
     <row r="693" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
+      <c r="D693" s="1"/>
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
       <c r="I693" s="2"/>
@@ -5737,6 +6357,7 @@
     <row r="694" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
+      <c r="D694" s="1"/>
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
       <c r="I694" s="2"/>
@@ -5744,6 +6365,7 @@
     <row r="695" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
+      <c r="D695" s="1"/>
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
       <c r="I695" s="2"/>
@@ -5751,6 +6373,7 @@
     <row r="696" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
+      <c r="D696" s="1"/>
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
       <c r="I696" s="2"/>
@@ -5758,6 +6381,7 @@
     <row r="697" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
+      <c r="D697" s="1"/>
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
       <c r="I697" s="2"/>
@@ -5765,6 +6389,7 @@
     <row r="698" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
+      <c r="D698" s="1"/>
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
       <c r="I698" s="2"/>
@@ -5772,6 +6397,7 @@
     <row r="699" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
+      <c r="D699" s="1"/>
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
       <c r="I699" s="2"/>
@@ -5779,6 +6405,7 @@
     <row r="700" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
+      <c r="D700" s="1"/>
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
       <c r="I700" s="2"/>
@@ -5786,6 +6413,7 @@
     <row r="701" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
+      <c r="D701" s="1"/>
       <c r="G701" s="1"/>
       <c r="H701" s="1"/>
       <c r="I701" s="2"/>
@@ -5793,6 +6421,7 @@
     <row r="702" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
+      <c r="D702" s="1"/>
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
       <c r="I702" s="2"/>
@@ -5800,6 +6429,7 @@
     <row r="703" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
+      <c r="D703" s="1"/>
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
       <c r="I703" s="2"/>
@@ -5807,6 +6437,7 @@
     <row r="704" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
+      <c r="D704" s="1"/>
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
       <c r="I704" s="2"/>
@@ -5814,6 +6445,7 @@
     <row r="705" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
+      <c r="D705" s="1"/>
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
       <c r="I705" s="2"/>
@@ -5821,6 +6453,7 @@
     <row r="706" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
+      <c r="D706" s="1"/>
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
       <c r="I706" s="2"/>
@@ -5828,6 +6461,7 @@
     <row r="707" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
+      <c r="D707" s="1"/>
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
       <c r="I707" s="2"/>
@@ -5835,6 +6469,7 @@
     <row r="708" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
+      <c r="D708" s="1"/>
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
       <c r="I708" s="2"/>
@@ -5842,6 +6477,7 @@
     <row r="709" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
+      <c r="D709" s="1"/>
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
       <c r="I709" s="2"/>
@@ -5849,6 +6485,7 @@
     <row r="710" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
+      <c r="D710" s="1"/>
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
       <c r="I710" s="2"/>
@@ -5856,6 +6493,7 @@
     <row r="711" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
+      <c r="D711" s="1"/>
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
       <c r="I711" s="2"/>
@@ -5863,6 +6501,7 @@
     <row r="712" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
+      <c r="D712" s="1"/>
       <c r="G712" s="1"/>
       <c r="H712" s="1"/>
       <c r="I712" s="2"/>
@@ -5870,6 +6509,7 @@
     <row r="713" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
+      <c r="D713" s="1"/>
       <c r="G713" s="1"/>
       <c r="H713" s="1"/>
       <c r="I713" s="2"/>
@@ -5877,6 +6517,7 @@
     <row r="714" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
+      <c r="D714" s="1"/>
       <c r="G714" s="1"/>
       <c r="H714" s="1"/>
       <c r="I714" s="2"/>
@@ -5884,6 +6525,7 @@
     <row r="715" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
+      <c r="D715" s="1"/>
       <c r="G715" s="1"/>
       <c r="H715" s="1"/>
       <c r="I715" s="2"/>
@@ -5891,6 +6533,7 @@
     <row r="716" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
+      <c r="D716" s="1"/>
       <c r="G716" s="1"/>
       <c r="H716" s="1"/>
       <c r="I716" s="2"/>
@@ -5898,6 +6541,7 @@
     <row r="717" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
+      <c r="D717" s="1"/>
       <c r="G717" s="1"/>
       <c r="H717" s="1"/>
       <c r="I717" s="2"/>
@@ -5905,6 +6549,7 @@
     <row r="718" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
+      <c r="D718" s="1"/>
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
       <c r="I718" s="2"/>
@@ -5912,6 +6557,7 @@
     <row r="719" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
+      <c r="D719" s="1"/>
       <c r="G719" s="1"/>
       <c r="H719" s="1"/>
       <c r="I719" s="2"/>
@@ -5919,6 +6565,7 @@
     <row r="720" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
+      <c r="D720" s="1"/>
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
       <c r="I720" s="2"/>
@@ -5926,6 +6573,7 @@
     <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
+      <c r="D721" s="1"/>
       <c r="G721" s="1"/>
       <c r="H721" s="1"/>
       <c r="I721" s="2"/>
@@ -5933,6 +6581,7 @@
     <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
+      <c r="D722" s="1"/>
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
       <c r="I722" s="2"/>
@@ -5940,6 +6589,7 @@
     <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
+      <c r="D723" s="1"/>
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
       <c r="I723" s="2"/>
@@ -5947,6 +6597,7 @@
     <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
+      <c r="D724" s="1"/>
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
       <c r="I724" s="2"/>
@@ -5954,6 +6605,7 @@
     <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
+      <c r="D725" s="1"/>
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
       <c r="I725" s="2"/>
@@ -5961,6 +6613,7 @@
     <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
+      <c r="D726" s="1"/>
       <c r="G726" s="1"/>
       <c r="H726" s="1"/>
       <c r="I726" s="2"/>
@@ -5968,6 +6621,7 @@
     <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
+      <c r="D727" s="1"/>
       <c r="G727" s="1"/>
       <c r="H727" s="1"/>
       <c r="I727" s="2"/>
@@ -5975,6 +6629,7 @@
     <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
+      <c r="D728" s="1"/>
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
       <c r="I728" s="2"/>
@@ -5982,6 +6637,7 @@
     <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
+      <c r="D729" s="1"/>
       <c r="G729" s="1"/>
       <c r="H729" s="1"/>
       <c r="I729" s="2"/>
@@ -5989,6 +6645,7 @@
     <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
+      <c r="D730" s="1"/>
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
       <c r="I730" s="2"/>
@@ -5996,6 +6653,7 @@
     <row r="731" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
+      <c r="D731" s="1"/>
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
       <c r="I731" s="2"/>
@@ -6003,6 +6661,7 @@
     <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
+      <c r="D732" s="1"/>
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
       <c r="I732" s="2"/>
@@ -6010,6 +6669,7 @@
     <row r="733" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
+      <c r="D733" s="1"/>
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
       <c r="I733" s="2"/>
@@ -6017,6 +6677,7 @@
     <row r="734" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
+      <c r="D734" s="1"/>
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
       <c r="I734" s="2"/>
@@ -6024,6 +6685,7 @@
     <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
+      <c r="D735" s="1"/>
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
       <c r="I735" s="2"/>
@@ -6031,6 +6693,7 @@
     <row r="736" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
+      <c r="D736" s="1"/>
       <c r="G736" s="1"/>
       <c r="H736" s="1"/>
       <c r="I736" s="2"/>
@@ -6038,6 +6701,7 @@
     <row r="737" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
+      <c r="D737" s="1"/>
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
       <c r="I737" s="2"/>
@@ -6045,6 +6709,7 @@
     <row r="738" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
+      <c r="D738" s="1"/>
       <c r="G738" s="1"/>
       <c r="H738" s="1"/>
       <c r="I738" s="2"/>
@@ -6052,6 +6717,7 @@
     <row r="739" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
+      <c r="D739" s="1"/>
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
       <c r="I739" s="2"/>
@@ -6059,6 +6725,7 @@
     <row r="740" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
+      <c r="D740" s="1"/>
       <c r="G740" s="1"/>
       <c r="H740" s="1"/>
       <c r="I740" s="2"/>
@@ -6066,6 +6733,7 @@
     <row r="741" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
+      <c r="D741" s="1"/>
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
       <c r="I741" s="2"/>
@@ -6073,6 +6741,7 @@
     <row r="742" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
+      <c r="D742" s="1"/>
       <c r="G742" s="1"/>
       <c r="H742" s="1"/>
       <c r="I742" s="2"/>
@@ -6080,6 +6749,7 @@
     <row r="743" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
+      <c r="D743" s="1"/>
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
       <c r="I743" s="2"/>
@@ -6087,6 +6757,7 @@
     <row r="744" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
+      <c r="D744" s="1"/>
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
       <c r="I744" s="2"/>
@@ -6094,6 +6765,7 @@
     <row r="745" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
+      <c r="D745" s="1"/>
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
       <c r="I745" s="2"/>
@@ -6101,6 +6773,7 @@
     <row r="746" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
+      <c r="D746" s="1"/>
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
       <c r="I746" s="2"/>
@@ -6108,6 +6781,7 @@
     <row r="747" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
+      <c r="D747" s="1"/>
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
       <c r="I747" s="2"/>
@@ -6115,6 +6789,7 @@
     <row r="748" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
+      <c r="D748" s="1"/>
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
       <c r="I748" s="2"/>
@@ -6122,6 +6797,7 @@
     <row r="749" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
+      <c r="D749" s="1"/>
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
       <c r="I749" s="2"/>
@@ -6129,6 +6805,7 @@
     <row r="750" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
+      <c r="D750" s="1"/>
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
       <c r="I750" s="2"/>
@@ -6136,6 +6813,7 @@
     <row r="751" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
+      <c r="D751" s="1"/>
       <c r="G751" s="1"/>
       <c r="H751" s="1"/>
       <c r="I751" s="2"/>
@@ -6143,6 +6821,7 @@
     <row r="752" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
+      <c r="D752" s="1"/>
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
       <c r="I752" s="2"/>
@@ -6150,6 +6829,7 @@
     <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
+      <c r="D753" s="1"/>
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
       <c r="I753" s="2"/>
@@ -6157,6 +6837,7 @@
     <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
+      <c r="D754" s="1"/>
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
       <c r="I754" s="2"/>
@@ -6164,6 +6845,7 @@
     <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
+      <c r="D755" s="1"/>
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
       <c r="I755" s="2"/>
@@ -6171,6 +6853,7 @@
     <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
+      <c r="D756" s="1"/>
       <c r="G756" s="1"/>
       <c r="H756" s="1"/>
       <c r="I756" s="2"/>
@@ -6178,6 +6861,7 @@
     <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
+      <c r="D757" s="1"/>
       <c r="G757" s="1"/>
       <c r="H757" s="1"/>
       <c r="I757" s="2"/>
@@ -6185,6 +6869,7 @@
     <row r="758" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
+      <c r="D758" s="1"/>
       <c r="G758" s="1"/>
       <c r="H758" s="1"/>
       <c r="I758" s="2"/>
@@ -6192,6 +6877,7 @@
     <row r="759" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
+      <c r="D759" s="1"/>
       <c r="G759" s="1"/>
       <c r="H759" s="1"/>
       <c r="I759" s="2"/>
@@ -6199,6 +6885,7 @@
     <row r="760" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
+      <c r="D760" s="1"/>
       <c r="G760" s="1"/>
       <c r="H760" s="1"/>
       <c r="I760" s="2"/>
@@ -6206,6 +6893,7 @@
     <row r="761" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
+      <c r="D761" s="1"/>
       <c r="G761" s="1"/>
       <c r="H761" s="1"/>
       <c r="I761" s="2"/>
@@ -6213,6 +6901,7 @@
     <row r="762" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
+      <c r="D762" s="1"/>
       <c r="G762" s="1"/>
       <c r="H762" s="1"/>
       <c r="I762" s="2"/>
@@ -6220,6 +6909,7 @@
     <row r="763" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
+      <c r="D763" s="1"/>
       <c r="G763" s="1"/>
       <c r="H763" s="1"/>
       <c r="I763" s="2"/>
@@ -6227,6 +6917,7 @@
     <row r="764" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
+      <c r="D764" s="1"/>
       <c r="G764" s="1"/>
       <c r="H764" s="1"/>
       <c r="I764" s="2"/>
@@ -6234,6 +6925,7 @@
     <row r="765" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
+      <c r="D765" s="1"/>
       <c r="G765" s="1"/>
       <c r="H765" s="1"/>
       <c r="I765" s="2"/>
@@ -6241,6 +6933,7 @@
     <row r="766" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
+      <c r="D766" s="1"/>
       <c r="G766" s="1"/>
       <c r="H766" s="1"/>
       <c r="I766" s="2"/>
@@ -6248,6 +6941,7 @@
     <row r="767" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
+      <c r="D767" s="1"/>
       <c r="G767" s="1"/>
       <c r="H767" s="1"/>
       <c r="I767" s="2"/>
@@ -6255,6 +6949,7 @@
     <row r="768" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
+      <c r="D768" s="1"/>
       <c r="G768" s="1"/>
       <c r="H768" s="1"/>
       <c r="I768" s="2"/>
@@ -6262,6 +6957,7 @@
     <row r="769" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
+      <c r="D769" s="1"/>
       <c r="G769" s="1"/>
       <c r="H769" s="1"/>
       <c r="I769" s="2"/>
@@ -6269,6 +6965,7 @@
     <row r="770" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
+      <c r="D770" s="1"/>
       <c r="G770" s="1"/>
       <c r="H770" s="1"/>
       <c r="I770" s="2"/>
@@ -6276,6 +6973,7 @@
     <row r="771" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
+      <c r="D771" s="1"/>
       <c r="G771" s="1"/>
       <c r="H771" s="1"/>
       <c r="I771" s="2"/>
@@ -6283,6 +6981,7 @@
     <row r="772" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
+      <c r="D772" s="1"/>
       <c r="G772" s="1"/>
       <c r="H772" s="1"/>
       <c r="I772" s="2"/>
@@ -6290,6 +6989,7 @@
     <row r="773" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
+      <c r="D773" s="1"/>
       <c r="G773" s="1"/>
       <c r="H773" s="1"/>
       <c r="I773" s="2"/>
@@ -6297,6 +6997,7 @@
     <row r="774" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
+      <c r="D774" s="1"/>
       <c r="G774" s="1"/>
       <c r="H774" s="1"/>
       <c r="I774" s="2"/>
@@ -6304,6 +7005,7 @@
     <row r="775" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
+      <c r="D775" s="1"/>
       <c r="G775" s="1"/>
       <c r="H775" s="1"/>
       <c r="I775" s="2"/>
@@ -6311,6 +7013,7 @@
     <row r="776" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
+      <c r="D776" s="1"/>
       <c r="G776" s="1"/>
       <c r="H776" s="1"/>
       <c r="I776" s="2"/>
@@ -6318,6 +7021,7 @@
     <row r="777" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
+      <c r="D777" s="1"/>
       <c r="G777" s="1"/>
       <c r="H777" s="1"/>
       <c r="I777" s="2"/>
@@ -6325,6 +7029,7 @@
     <row r="778" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
+      <c r="D778" s="1"/>
       <c r="G778" s="1"/>
       <c r="H778" s="1"/>
       <c r="I778" s="2"/>
@@ -6332,6 +7037,7 @@
     <row r="779" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
+      <c r="D779" s="1"/>
       <c r="G779" s="1"/>
       <c r="H779" s="1"/>
       <c r="I779" s="2"/>
@@ -6339,6 +7045,7 @@
     <row r="780" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
+      <c r="D780" s="1"/>
       <c r="G780" s="1"/>
       <c r="H780" s="1"/>
       <c r="I780" s="2"/>
@@ -6346,6 +7053,7 @@
     <row r="781" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
+      <c r="D781" s="1"/>
       <c r="G781" s="1"/>
       <c r="H781" s="1"/>
       <c r="I781" s="2"/>
@@ -6353,6 +7061,7 @@
     <row r="782" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
+      <c r="D782" s="1"/>
       <c r="G782" s="1"/>
       <c r="H782" s="1"/>
       <c r="I782" s="2"/>
@@ -6360,6 +7069,7 @@
     <row r="783" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
+      <c r="D783" s="1"/>
       <c r="G783" s="1"/>
       <c r="H783" s="1"/>
       <c r="I783" s="2"/>
@@ -6367,6 +7077,7 @@
     <row r="784" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
+      <c r="D784" s="1"/>
       <c r="G784" s="1"/>
       <c r="H784" s="1"/>
       <c r="I784" s="2"/>
@@ -6374,6 +7085,7 @@
     <row r="785" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
+      <c r="D785" s="1"/>
       <c r="G785" s="1"/>
       <c r="H785" s="1"/>
       <c r="I785" s="2"/>
@@ -6381,6 +7093,7 @@
     <row r="786" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
+      <c r="D786" s="1"/>
       <c r="G786" s="1"/>
       <c r="H786" s="1"/>
       <c r="I786" s="2"/>
@@ -6388,6 +7101,7 @@
     <row r="787" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
+      <c r="D787" s="1"/>
       <c r="G787" s="1"/>
       <c r="H787" s="1"/>
       <c r="I787" s="2"/>
@@ -6395,6 +7109,7 @@
     <row r="788" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
+      <c r="D788" s="1"/>
       <c r="G788" s="1"/>
       <c r="H788" s="1"/>
       <c r="I788" s="2"/>
@@ -6402,6 +7117,7 @@
     <row r="789" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
+      <c r="D789" s="1"/>
       <c r="G789" s="1"/>
       <c r="H789" s="1"/>
       <c r="I789" s="2"/>
@@ -6409,6 +7125,7 @@
     <row r="790" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
+      <c r="D790" s="1"/>
       <c r="G790" s="1"/>
       <c r="H790" s="1"/>
       <c r="I790" s="2"/>
@@ -6416,6 +7133,7 @@
     <row r="791" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
+      <c r="D791" s="1"/>
       <c r="G791" s="1"/>
       <c r="H791" s="1"/>
       <c r="I791" s="2"/>
@@ -6423,6 +7141,7 @@
     <row r="792" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
+      <c r="D792" s="1"/>
       <c r="G792" s="1"/>
       <c r="H792" s="1"/>
       <c r="I792" s="2"/>
@@ -6430,6 +7149,7 @@
     <row r="793" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
+      <c r="D793" s="1"/>
       <c r="G793" s="1"/>
       <c r="H793" s="1"/>
       <c r="I793" s="2"/>
@@ -6437,6 +7157,7 @@
     <row r="794" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
+      <c r="D794" s="1"/>
       <c r="G794" s="1"/>
       <c r="H794" s="1"/>
       <c r="I794" s="2"/>
@@ -6444,6 +7165,7 @@
     <row r="795" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
+      <c r="D795" s="1"/>
       <c r="G795" s="1"/>
       <c r="H795" s="1"/>
       <c r="I795" s="2"/>
@@ -6451,6 +7173,7 @@
     <row r="796" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
+      <c r="D796" s="1"/>
       <c r="G796" s="1"/>
       <c r="H796" s="1"/>
       <c r="I796" s="2"/>
@@ -6458,6 +7181,7 @@
     <row r="797" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
+      <c r="D797" s="1"/>
       <c r="G797" s="1"/>
       <c r="H797" s="1"/>
       <c r="I797" s="2"/>
@@ -6465,6 +7189,7 @@
     <row r="798" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
+      <c r="D798" s="1"/>
       <c r="G798" s="1"/>
       <c r="H798" s="1"/>
       <c r="I798" s="2"/>
@@ -6472,6 +7197,7 @@
     <row r="799" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
+      <c r="D799" s="1"/>
       <c r="G799" s="1"/>
       <c r="H799" s="1"/>
       <c r="I799" s="2"/>
@@ -6479,6 +7205,7 @@
     <row r="800" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
+      <c r="D800" s="1"/>
       <c r="G800" s="1"/>
       <c r="H800" s="1"/>
       <c r="I800" s="2"/>
@@ -6486,6 +7213,7 @@
     <row r="801" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
+      <c r="D801" s="1"/>
       <c r="G801" s="1"/>
       <c r="H801" s="1"/>
       <c r="I801" s="2"/>
@@ -6493,6 +7221,7 @@
     <row r="802" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
+      <c r="D802" s="1"/>
       <c r="G802" s="1"/>
       <c r="H802" s="1"/>
       <c r="I802" s="2"/>
@@ -6500,6 +7229,7 @@
     <row r="803" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
+      <c r="D803" s="1"/>
       <c r="G803" s="1"/>
       <c r="H803" s="1"/>
       <c r="I803" s="2"/>
@@ -6507,6 +7237,7 @@
     <row r="804" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
+      <c r="D804" s="1"/>
       <c r="G804" s="1"/>
       <c r="H804" s="1"/>
       <c r="I804" s="2"/>
@@ -6514,6 +7245,7 @@
     <row r="805" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
+      <c r="D805" s="1"/>
       <c r="G805" s="1"/>
       <c r="H805" s="1"/>
       <c r="I805" s="2"/>
@@ -6521,6 +7253,7 @@
     <row r="806" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
+      <c r="D806" s="1"/>
       <c r="G806" s="1"/>
       <c r="H806" s="1"/>
       <c r="I806" s="2"/>
@@ -6528,6 +7261,7 @@
     <row r="807" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
+      <c r="D807" s="1"/>
       <c r="G807" s="1"/>
       <c r="H807" s="1"/>
       <c r="I807" s="2"/>
@@ -6535,6 +7269,7 @@
     <row r="808" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
+      <c r="D808" s="1"/>
       <c r="G808" s="1"/>
       <c r="H808" s="1"/>
       <c r="I808" s="2"/>
@@ -6542,6 +7277,7 @@
     <row r="809" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
+      <c r="D809" s="1"/>
       <c r="G809" s="1"/>
       <c r="H809" s="1"/>
       <c r="I809" s="2"/>
@@ -6549,6 +7285,7 @@
     <row r="810" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
+      <c r="D810" s="1"/>
       <c r="G810" s="1"/>
       <c r="H810" s="1"/>
       <c r="I810" s="2"/>
@@ -6556,6 +7293,7 @@
     <row r="811" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
+      <c r="D811" s="1"/>
       <c r="G811" s="1"/>
       <c r="H811" s="1"/>
       <c r="I811" s="2"/>
@@ -6563,6 +7301,7 @@
     <row r="812" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
+      <c r="D812" s="1"/>
       <c r="G812" s="1"/>
       <c r="H812" s="1"/>
       <c r="I812" s="2"/>
@@ -6570,6 +7309,7 @@
     <row r="813" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
+      <c r="D813" s="1"/>
       <c r="G813" s="1"/>
       <c r="H813" s="1"/>
       <c r="I813" s="2"/>
@@ -6577,6 +7317,7 @@
     <row r="814" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
+      <c r="D814" s="1"/>
       <c r="G814" s="1"/>
       <c r="H814" s="1"/>
       <c r="I814" s="2"/>
@@ -6584,6 +7325,7 @@
     <row r="815" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
+      <c r="D815" s="1"/>
       <c r="G815" s="1"/>
       <c r="H815" s="1"/>
       <c r="I815" s="2"/>
@@ -6591,6 +7333,7 @@
     <row r="816" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
+      <c r="D816" s="1"/>
       <c r="G816" s="1"/>
       <c r="H816" s="1"/>
       <c r="I816" s="2"/>
@@ -6598,6 +7341,7 @@
     <row r="817" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
+      <c r="D817" s="1"/>
       <c r="G817" s="1"/>
       <c r="H817" s="1"/>
       <c r="I817" s="2"/>
@@ -6605,6 +7349,7 @@
     <row r="818" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
+      <c r="D818" s="1"/>
       <c r="G818" s="1"/>
       <c r="H818" s="1"/>
       <c r="I818" s="2"/>
@@ -6612,6 +7357,7 @@
     <row r="819" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
+      <c r="D819" s="1"/>
       <c r="G819" s="1"/>
       <c r="H819" s="1"/>
       <c r="I819" s="2"/>
@@ -6619,6 +7365,7 @@
     <row r="820" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
+      <c r="D820" s="1"/>
       <c r="G820" s="1"/>
       <c r="H820" s="1"/>
       <c r="I820" s="2"/>
@@ -6626,6 +7373,7 @@
     <row r="821" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
+      <c r="D821" s="1"/>
       <c r="G821" s="1"/>
       <c r="H821" s="1"/>
       <c r="I821" s="2"/>
@@ -6633,6 +7381,7 @@
     <row r="822" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
+      <c r="D822" s="1"/>
       <c r="G822" s="1"/>
       <c r="H822" s="1"/>
       <c r="I822" s="2"/>
@@ -6640,6 +7389,7 @@
     <row r="823" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
+      <c r="D823" s="1"/>
       <c r="G823" s="1"/>
       <c r="H823" s="1"/>
       <c r="I823" s="2"/>
@@ -6647,6 +7397,7 @@
     <row r="824" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
+      <c r="D824" s="1"/>
       <c r="G824" s="1"/>
       <c r="H824" s="1"/>
       <c r="I824" s="2"/>
@@ -6654,6 +7405,7 @@
     <row r="825" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
+      <c r="D825" s="1"/>
       <c r="G825" s="1"/>
       <c r="H825" s="1"/>
       <c r="I825" s="2"/>
@@ -6661,6 +7413,7 @@
     <row r="826" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
+      <c r="D826" s="1"/>
       <c r="G826" s="1"/>
       <c r="H826" s="1"/>
       <c r="I826" s="2"/>
@@ -6668,6 +7421,7 @@
     <row r="827" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
+      <c r="D827" s="1"/>
       <c r="G827" s="1"/>
       <c r="H827" s="1"/>
       <c r="I827" s="2"/>
@@ -6675,6 +7429,7 @@
     <row r="828" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
+      <c r="D828" s="1"/>
       <c r="G828" s="1"/>
       <c r="H828" s="1"/>
       <c r="I828" s="2"/>
@@ -6682,6 +7437,7 @@
     <row r="829" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
+      <c r="D829" s="1"/>
       <c r="G829" s="1"/>
       <c r="H829" s="1"/>
       <c r="I829" s="2"/>
@@ -6689,6 +7445,7 @@
     <row r="830" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
+      <c r="D830" s="1"/>
       <c r="G830" s="1"/>
       <c r="H830" s="1"/>
       <c r="I830" s="2"/>
@@ -6696,6 +7453,7 @@
     <row r="831" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
+      <c r="D831" s="1"/>
       <c r="G831" s="1"/>
       <c r="H831" s="1"/>
       <c r="I831" s="2"/>
@@ -6703,6 +7461,7 @@
     <row r="832" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
+      <c r="D832" s="1"/>
       <c r="G832" s="1"/>
       <c r="H832" s="1"/>
       <c r="I832" s="2"/>
@@ -6710,6 +7469,7 @@
     <row r="833" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
+      <c r="D833" s="1"/>
       <c r="G833" s="1"/>
       <c r="H833" s="1"/>
       <c r="I833" s="2"/>
@@ -6717,6 +7477,7 @@
     <row r="834" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
+      <c r="D834" s="1"/>
       <c r="G834" s="1"/>
       <c r="H834" s="1"/>
       <c r="I834" s="2"/>
@@ -6724,6 +7485,7 @@
     <row r="835" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
+      <c r="D835" s="1"/>
       <c r="G835" s="1"/>
       <c r="H835" s="1"/>
       <c r="I835" s="2"/>
@@ -6731,6 +7493,7 @@
     <row r="836" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
+      <c r="D836" s="1"/>
       <c r="G836" s="1"/>
       <c r="H836" s="1"/>
       <c r="I836" s="2"/>
@@ -6738,6 +7501,7 @@
     <row r="837" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
+      <c r="D837" s="1"/>
       <c r="G837" s="1"/>
       <c r="H837" s="1"/>
       <c r="I837" s="2"/>
@@ -6745,6 +7509,7 @@
     <row r="838" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
+      <c r="D838" s="1"/>
       <c r="G838" s="1"/>
       <c r="H838" s="1"/>
       <c r="I838" s="2"/>
@@ -6752,6 +7517,7 @@
     <row r="839" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
+      <c r="D839" s="1"/>
       <c r="G839" s="1"/>
       <c r="H839" s="1"/>
       <c r="I839" s="2"/>
@@ -6759,6 +7525,7 @@
     <row r="840" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
+      <c r="D840" s="1"/>
       <c r="G840" s="1"/>
       <c r="H840" s="1"/>
       <c r="I840" s="2"/>
@@ -6766,6 +7533,7 @@
     <row r="841" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
+      <c r="D841" s="1"/>
       <c r="G841" s="1"/>
       <c r="H841" s="1"/>
       <c r="I841" s="2"/>
@@ -6773,6 +7541,7 @@
     <row r="842" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
+      <c r="D842" s="1"/>
       <c r="G842" s="1"/>
       <c r="H842" s="1"/>
       <c r="I842" s="2"/>
@@ -6780,6 +7549,7 @@
     <row r="843" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
+      <c r="D843" s="1"/>
       <c r="G843" s="1"/>
       <c r="H843" s="1"/>
       <c r="I843" s="2"/>
@@ -6787,6 +7557,7 @@
     <row r="844" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
+      <c r="D844" s="1"/>
       <c r="G844" s="1"/>
       <c r="H844" s="1"/>
       <c r="I844" s="2"/>
@@ -6794,6 +7565,7 @@
     <row r="845" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
+      <c r="D845" s="1"/>
       <c r="G845" s="1"/>
       <c r="H845" s="1"/>
       <c r="I845" s="2"/>
@@ -6801,6 +7573,7 @@
     <row r="846" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
+      <c r="D846" s="1"/>
       <c r="G846" s="1"/>
       <c r="H846" s="1"/>
       <c r="I846" s="2"/>
@@ -6808,6 +7581,7 @@
     <row r="847" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
+      <c r="D847" s="1"/>
       <c r="G847" s="1"/>
       <c r="H847" s="1"/>
       <c r="I847" s="2"/>
@@ -6815,6 +7589,7 @@
     <row r="848" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
+      <c r="D848" s="1"/>
       <c r="G848" s="1"/>
       <c r="H848" s="1"/>
       <c r="I848" s="2"/>
@@ -6822,6 +7597,7 @@
     <row r="849" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
+      <c r="D849" s="1"/>
       <c r="G849" s="1"/>
       <c r="H849" s="1"/>
       <c r="I849" s="2"/>
@@ -6829,6 +7605,7 @@
     <row r="850" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
+      <c r="D850" s="1"/>
       <c r="G850" s="1"/>
       <c r="H850" s="1"/>
       <c r="I850" s="2"/>
@@ -6836,6 +7613,7 @@
     <row r="851" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
+      <c r="D851" s="1"/>
       <c r="G851" s="1"/>
       <c r="H851" s="1"/>
       <c r="I851" s="2"/>
@@ -6843,6 +7621,7 @@
     <row r="852" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
+      <c r="D852" s="1"/>
       <c r="G852" s="1"/>
       <c r="H852" s="1"/>
       <c r="I852" s="2"/>
@@ -6850,6 +7629,7 @@
     <row r="853" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
+      <c r="D853" s="1"/>
       <c r="G853" s="1"/>
       <c r="H853" s="1"/>
       <c r="I853" s="2"/>
@@ -6857,6 +7637,7 @@
     <row r="854" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
+      <c r="D854" s="1"/>
       <c r="G854" s="1"/>
       <c r="H854" s="1"/>
       <c r="I854" s="2"/>
@@ -6864,6 +7645,7 @@
     <row r="855" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
+      <c r="D855" s="1"/>
       <c r="G855" s="1"/>
       <c r="H855" s="1"/>
       <c r="I855" s="2"/>
@@ -6871,6 +7653,7 @@
     <row r="856" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
+      <c r="D856" s="1"/>
       <c r="G856" s="1"/>
       <c r="H856" s="1"/>
       <c r="I856" s="2"/>
@@ -6878,6 +7661,7 @@
     <row r="857" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
+      <c r="D857" s="1"/>
       <c r="G857" s="1"/>
       <c r="H857" s="1"/>
       <c r="I857" s="2"/>
@@ -6885,6 +7669,7 @@
     <row r="858" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
+      <c r="D858" s="1"/>
       <c r="G858" s="1"/>
       <c r="H858" s="1"/>
       <c r="I858" s="2"/>
@@ -6892,6 +7677,7 @@
     <row r="859" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
+      <c r="D859" s="1"/>
       <c r="G859" s="1"/>
       <c r="H859" s="1"/>
       <c r="I859" s="2"/>
@@ -6899,6 +7685,7 @@
     <row r="860" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
+      <c r="D860" s="1"/>
       <c r="G860" s="1"/>
       <c r="H860" s="1"/>
       <c r="I860" s="2"/>
@@ -6906,6 +7693,7 @@
     <row r="861" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
+      <c r="D861" s="1"/>
       <c r="G861" s="1"/>
       <c r="H861" s="1"/>
       <c r="I861" s="2"/>
@@ -6913,6 +7701,7 @@
     <row r="862" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
+      <c r="D862" s="1"/>
       <c r="G862" s="1"/>
       <c r="H862" s="1"/>
       <c r="I862" s="2"/>
@@ -6920,6 +7709,7 @@
     <row r="863" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
+      <c r="D863" s="1"/>
       <c r="G863" s="1"/>
       <c r="H863" s="1"/>
       <c r="I863" s="2"/>
@@ -6927,6 +7717,7 @@
     <row r="864" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
+      <c r="D864" s="1"/>
       <c r="G864" s="1"/>
       <c r="H864" s="1"/>
       <c r="I864" s="2"/>
@@ -6934,6 +7725,7 @@
     <row r="865" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
+      <c r="D865" s="1"/>
       <c r="G865" s="1"/>
       <c r="H865" s="1"/>
       <c r="I865" s="2"/>
@@ -6941,6 +7733,7 @@
     <row r="866" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
+      <c r="D866" s="1"/>
       <c r="G866" s="1"/>
       <c r="H866" s="1"/>
       <c r="I866" s="2"/>
@@ -6948,6 +7741,7 @@
     <row r="867" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
+      <c r="D867" s="1"/>
       <c r="G867" s="1"/>
       <c r="H867" s="1"/>
       <c r="I867" s="2"/>
@@ -6955,6 +7749,7 @@
     <row r="868" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
+      <c r="D868" s="1"/>
       <c r="G868" s="1"/>
       <c r="H868" s="1"/>
       <c r="I868" s="2"/>
@@ -6962,6 +7757,7 @@
     <row r="869" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
+      <c r="D869" s="1"/>
       <c r="G869" s="1"/>
       <c r="H869" s="1"/>
       <c r="I869" s="2"/>
@@ -6969,6 +7765,7 @@
     <row r="870" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
+      <c r="D870" s="1"/>
       <c r="G870" s="1"/>
       <c r="H870" s="1"/>
       <c r="I870" s="2"/>
@@ -6976,6 +7773,7 @@
     <row r="871" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
+      <c r="D871" s="1"/>
       <c r="G871" s="1"/>
       <c r="H871" s="1"/>
       <c r="I871" s="2"/>
@@ -6983,6 +7781,7 @@
     <row r="872" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
+      <c r="D872" s="1"/>
       <c r="G872" s="1"/>
       <c r="H872" s="1"/>
       <c r="I872" s="2"/>
@@ -6990,6 +7789,7 @@
     <row r="873" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
+      <c r="D873" s="1"/>
       <c r="G873" s="1"/>
       <c r="H873" s="1"/>
       <c r="I873" s="2"/>
@@ -6997,6 +7797,7 @@
     <row r="874" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
+      <c r="D874" s="1"/>
       <c r="G874" s="1"/>
       <c r="H874" s="1"/>
       <c r="I874" s="2"/>
@@ -7004,6 +7805,7 @@
     <row r="875" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
+      <c r="D875" s="1"/>
       <c r="G875" s="1"/>
       <c r="H875" s="1"/>
       <c r="I875" s="2"/>
@@ -7011,6 +7813,7 @@
     <row r="876" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
+      <c r="D876" s="1"/>
       <c r="G876" s="1"/>
       <c r="H876" s="1"/>
       <c r="I876" s="2"/>
@@ -7018,6 +7821,7 @@
     <row r="877" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
+      <c r="D877" s="1"/>
       <c r="G877" s="1"/>
       <c r="H877" s="1"/>
       <c r="I877" s="2"/>
@@ -7025,6 +7829,7 @@
     <row r="878" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
+      <c r="D878" s="1"/>
       <c r="G878" s="1"/>
       <c r="H878" s="1"/>
       <c r="I878" s="2"/>
@@ -7032,6 +7837,7 @@
     <row r="879" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
+      <c r="D879" s="1"/>
       <c r="G879" s="1"/>
       <c r="H879" s="1"/>
       <c r="I879" s="2"/>
@@ -7039,6 +7845,7 @@
     <row r="880" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
+      <c r="D880" s="1"/>
       <c r="G880" s="1"/>
       <c r="H880" s="1"/>
       <c r="I880" s="2"/>
@@ -7046,6 +7853,7 @@
     <row r="881" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
+      <c r="D881" s="1"/>
       <c r="G881" s="1"/>
       <c r="H881" s="1"/>
       <c r="I881" s="2"/>
@@ -7053,6 +7861,7 @@
     <row r="882" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
+      <c r="D882" s="1"/>
       <c r="G882" s="1"/>
       <c r="H882" s="1"/>
       <c r="I882" s="2"/>
@@ -7060,6 +7869,7 @@
     <row r="883" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
+      <c r="D883" s="1"/>
       <c r="G883" s="1"/>
       <c r="H883" s="1"/>
       <c r="I883" s="2"/>
@@ -7067,6 +7877,7 @@
     <row r="884" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
+      <c r="D884" s="1"/>
       <c r="G884" s="1"/>
       <c r="H884" s="1"/>
       <c r="I884" s="2"/>
@@ -7074,6 +7885,7 @@
     <row r="885" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
+      <c r="D885" s="1"/>
       <c r="G885" s="1"/>
       <c r="H885" s="1"/>
       <c r="I885" s="2"/>
@@ -7081,6 +7893,7 @@
     <row r="886" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
+      <c r="D886" s="1"/>
       <c r="G886" s="1"/>
       <c r="H886" s="1"/>
       <c r="I886" s="2"/>
@@ -7088,6 +7901,7 @@
     <row r="887" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
+      <c r="D887" s="1"/>
       <c r="G887" s="1"/>
       <c r="H887" s="1"/>
       <c r="I887" s="2"/>
@@ -7095,6 +7909,7 @@
     <row r="888" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
+      <c r="D888" s="1"/>
       <c r="G888" s="1"/>
       <c r="H888" s="1"/>
       <c r="I888" s="2"/>
@@ -7102,6 +7917,7 @@
     <row r="889" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
+      <c r="D889" s="1"/>
       <c r="G889" s="1"/>
       <c r="H889" s="1"/>
       <c r="I889" s="2"/>
@@ -7109,6 +7925,7 @@
     <row r="890" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
+      <c r="D890" s="1"/>
       <c r="G890" s="1"/>
       <c r="H890" s="1"/>
       <c r="I890" s="2"/>
@@ -7116,6 +7933,7 @@
     <row r="891" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
+      <c r="D891" s="1"/>
       <c r="G891" s="1"/>
       <c r="H891" s="1"/>
       <c r="I891" s="2"/>
@@ -7123,6 +7941,7 @@
     <row r="892" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
+      <c r="D892" s="1"/>
       <c r="G892" s="1"/>
       <c r="H892" s="1"/>
       <c r="I892" s="2"/>
@@ -7130,6 +7949,7 @@
     <row r="893" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
+      <c r="D893" s="1"/>
       <c r="G893" s="1"/>
       <c r="H893" s="1"/>
       <c r="I893" s="2"/>
@@ -7137,6 +7957,7 @@
     <row r="894" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
+      <c r="D894" s="1"/>
       <c r="G894" s="1"/>
       <c r="H894" s="1"/>
       <c r="I894" s="2"/>
@@ -7144,6 +7965,7 @@
     <row r="895" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
+      <c r="D895" s="1"/>
       <c r="G895" s="1"/>
       <c r="H895" s="1"/>
       <c r="I895" s="2"/>
@@ -7151,6 +7973,7 @@
     <row r="896" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
+      <c r="D896" s="1"/>
       <c r="G896" s="1"/>
       <c r="H896" s="1"/>
       <c r="I896" s="2"/>
@@ -7158,6 +7981,7 @@
     <row r="897" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
+      <c r="D897" s="1"/>
       <c r="G897" s="1"/>
       <c r="H897" s="1"/>
       <c r="I897" s="2"/>
@@ -7165,6 +7989,7 @@
     <row r="898" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
+      <c r="D898" s="1"/>
       <c r="G898" s="1"/>
       <c r="H898" s="1"/>
       <c r="I898" s="2"/>
@@ -7172,6 +7997,7 @@
     <row r="899" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
+      <c r="D899" s="1"/>
       <c r="G899" s="1"/>
       <c r="H899" s="1"/>
       <c r="I899" s="2"/>
@@ -7179,6 +8005,7 @@
     <row r="900" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
+      <c r="D900" s="1"/>
       <c r="G900" s="1"/>
       <c r="H900" s="1"/>
       <c r="I900" s="2"/>
@@ -7186,6 +8013,7 @@
     <row r="901" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
+      <c r="D901" s="1"/>
       <c r="G901" s="1"/>
       <c r="H901" s="1"/>
       <c r="I901" s="2"/>
@@ -7193,6 +8021,7 @@
     <row r="902" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
+      <c r="D902" s="1"/>
       <c r="G902" s="1"/>
       <c r="H902" s="1"/>
       <c r="I902" s="2"/>
@@ -7200,6 +8029,7 @@
     <row r="903" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
+      <c r="D903" s="1"/>
       <c r="G903" s="1"/>
       <c r="H903" s="1"/>
       <c r="I903" s="2"/>
@@ -7207,6 +8037,7 @@
     <row r="904" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
+      <c r="D904" s="1"/>
       <c r="G904" s="1"/>
       <c r="H904" s="1"/>
       <c r="I904" s="2"/>
@@ -7214,6 +8045,7 @@
     <row r="905" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
+      <c r="D905" s="1"/>
       <c r="G905" s="1"/>
       <c r="H905" s="1"/>
       <c r="I905" s="2"/>
@@ -7221,6 +8053,7 @@
     <row r="906" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
+      <c r="D906" s="1"/>
       <c r="G906" s="1"/>
       <c r="H906" s="1"/>
       <c r="I906" s="2"/>
@@ -7228,6 +8061,7 @@
     <row r="907" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
+      <c r="D907" s="1"/>
       <c r="G907" s="1"/>
       <c r="H907" s="1"/>
       <c r="I907" s="2"/>
@@ -7235,6 +8069,7 @@
     <row r="908" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
+      <c r="D908" s="1"/>
       <c r="G908" s="1"/>
       <c r="H908" s="1"/>
       <c r="I908" s="2"/>
@@ -7242,6 +8077,7 @@
     <row r="909" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
+      <c r="D909" s="1"/>
       <c r="G909" s="1"/>
       <c r="H909" s="1"/>
       <c r="I909" s="2"/>
@@ -7249,6 +8085,7 @@
     <row r="910" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
+      <c r="D910" s="1"/>
       <c r="G910" s="1"/>
       <c r="H910" s="1"/>
       <c r="I910" s="2"/>
@@ -7256,6 +8093,7 @@
     <row r="911" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
+      <c r="D911" s="1"/>
       <c r="G911" s="1"/>
       <c r="H911" s="1"/>
       <c r="I911" s="2"/>
@@ -7263,6 +8101,7 @@
     <row r="912" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
+      <c r="D912" s="1"/>
       <c r="G912" s="1"/>
       <c r="H912" s="1"/>
       <c r="I912" s="2"/>
@@ -7270,6 +8109,7 @@
     <row r="913" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
+      <c r="D913" s="1"/>
       <c r="G913" s="1"/>
       <c r="H913" s="1"/>
       <c r="I913" s="2"/>
@@ -7277,6 +8117,7 @@
     <row r="914" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
+      <c r="D914" s="1"/>
       <c r="G914" s="1"/>
       <c r="H914" s="1"/>
       <c r="I914" s="2"/>
@@ -7284,6 +8125,7 @@
     <row r="915" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
+      <c r="D915" s="1"/>
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
       <c r="I915" s="2"/>
@@ -7291,6 +8133,7 @@
     <row r="916" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
+      <c r="D916" s="1"/>
       <c r="G916" s="1"/>
       <c r="H916" s="1"/>
       <c r="I916" s="2"/>
@@ -7298,6 +8141,7 @@
     <row r="917" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
+      <c r="D917" s="1"/>
       <c r="G917" s="1"/>
       <c r="H917" s="1"/>
       <c r="I917" s="2"/>
@@ -7305,6 +8149,7 @@
     <row r="918" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
+      <c r="D918" s="1"/>
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
       <c r="I918" s="2"/>
@@ -7312,6 +8157,7 @@
     <row r="919" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
+      <c r="D919" s="1"/>
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
       <c r="I919" s="2"/>
@@ -7319,6 +8165,7 @@
     <row r="920" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
+      <c r="D920" s="1"/>
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
       <c r="I920" s="2"/>
@@ -7326,6 +8173,7 @@
     <row r="921" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
+      <c r="D921" s="1"/>
       <c r="G921" s="1"/>
       <c r="H921" s="1"/>
       <c r="I921" s="2"/>
@@ -7333,6 +8181,7 @@
     <row r="922" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
+      <c r="D922" s="1"/>
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
       <c r="I922" s="2"/>
@@ -7340,6 +8189,7 @@
     <row r="923" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
+      <c r="D923" s="1"/>
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
       <c r="I923" s="2"/>
@@ -7347,6 +8197,7 @@
     <row r="924" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
+      <c r="D924" s="1"/>
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
       <c r="I924" s="2"/>
@@ -7354,6 +8205,7 @@
     <row r="925" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
+      <c r="D925" s="1"/>
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
       <c r="I925" s="2"/>
@@ -7361,6 +8213,7 @@
     <row r="926" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
+      <c r="D926" s="1"/>
       <c r="G926" s="1"/>
       <c r="H926" s="1"/>
       <c r="I926" s="2"/>
@@ -7368,6 +8221,7 @@
     <row r="927" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
+      <c r="D927" s="1"/>
       <c r="G927" s="1"/>
       <c r="H927" s="1"/>
       <c r="I927" s="2"/>
@@ -7375,6 +8229,7 @@
     <row r="928" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
+      <c r="D928" s="1"/>
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
       <c r="I928" s="2"/>
@@ -7382,6 +8237,7 @@
     <row r="929" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
+      <c r="D929" s="1"/>
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
       <c r="I929" s="2"/>
@@ -7389,6 +8245,7 @@
     <row r="930" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
+      <c r="D930" s="1"/>
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
       <c r="I930" s="2"/>
@@ -7396,6 +8253,7 @@
     <row r="931" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
+      <c r="D931" s="1"/>
       <c r="G931" s="1"/>
       <c r="H931" s="1"/>
       <c r="I931" s="2"/>
@@ -7403,6 +8261,7 @@
     <row r="932" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
+      <c r="D932" s="1"/>
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
       <c r="I932" s="2"/>
@@ -7410,6 +8269,7 @@
     <row r="933" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
+      <c r="D933" s="1"/>
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
       <c r="I933" s="2"/>
@@ -7417,6 +8277,7 @@
     <row r="934" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
+      <c r="D934" s="1"/>
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
       <c r="I934" s="2"/>
@@ -7424,6 +8285,7 @@
     <row r="935" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
+      <c r="D935" s="1"/>
       <c r="G935" s="1"/>
       <c r="H935" s="1"/>
       <c r="I935" s="2"/>
@@ -7431,6 +8293,7 @@
     <row r="936" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
+      <c r="D936" s="1"/>
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
       <c r="I936" s="2"/>
@@ -7438,6 +8301,7 @@
     <row r="937" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
+      <c r="D937" s="1"/>
       <c r="G937" s="1"/>
       <c r="H937" s="1"/>
       <c r="I937" s="2"/>
@@ -7445,6 +8309,7 @@
     <row r="938" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
+      <c r="D938" s="1"/>
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
       <c r="I938" s="2"/>
@@ -7452,6 +8317,7 @@
     <row r="939" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
+      <c r="D939" s="1"/>
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
       <c r="I939" s="2"/>
@@ -7459,6 +8325,7 @@
     <row r="940" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
+      <c r="D940" s="1"/>
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
       <c r="I940" s="2"/>
@@ -7466,6 +8333,7 @@
     <row r="941" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
+      <c r="D941" s="1"/>
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
       <c r="I941" s="2"/>
@@ -7473,6 +8341,7 @@
     <row r="942" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
+      <c r="D942" s="1"/>
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
       <c r="I942" s="2"/>
@@ -7480,6 +8349,7 @@
     <row r="943" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
+      <c r="D943" s="1"/>
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
       <c r="I943" s="2"/>
@@ -7487,6 +8357,7 @@
     <row r="944" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
+      <c r="D944" s="1"/>
       <c r="G944" s="1"/>
       <c r="H944" s="1"/>
       <c r="I944" s="2"/>
@@ -7494,6 +8365,7 @@
     <row r="945" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
+      <c r="D945" s="1"/>
       <c r="G945" s="1"/>
       <c r="H945" s="1"/>
       <c r="I945" s="2"/>
@@ -7501,6 +8373,7 @@
     <row r="946" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
+      <c r="D946" s="1"/>
       <c r="G946" s="1"/>
       <c r="H946" s="1"/>
       <c r="I946" s="2"/>
@@ -7508,6 +8381,7 @@
     <row r="947" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
+      <c r="D947" s="1"/>
       <c r="G947" s="1"/>
       <c r="H947" s="1"/>
       <c r="I947" s="2"/>
@@ -7515,6 +8389,7 @@
     <row r="948" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
+      <c r="D948" s="1"/>
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
       <c r="I948" s="2"/>
@@ -7522,6 +8397,7 @@
     <row r="949" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
+      <c r="D949" s="1"/>
       <c r="G949" s="1"/>
       <c r="H949" s="1"/>
       <c r="I949" s="2"/>
@@ -7529,6 +8405,7 @@
     <row r="950" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
+      <c r="D950" s="1"/>
       <c r="G950" s="1"/>
       <c r="H950" s="1"/>
       <c r="I950" s="2"/>
@@ -7536,6 +8413,7 @@
     <row r="951" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
+      <c r="D951" s="1"/>
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
       <c r="I951" s="2"/>
@@ -7543,6 +8421,7 @@
     <row r="952" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
+      <c r="D952" s="1"/>
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
       <c r="I952" s="2"/>
@@ -7550,6 +8429,7 @@
     <row r="953" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
+      <c r="D953" s="1"/>
       <c r="G953" s="1"/>
       <c r="H953" s="1"/>
       <c r="I953" s="2"/>
@@ -7557,6 +8437,7 @@
     <row r="954" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
+      <c r="D954" s="1"/>
       <c r="G954" s="1"/>
       <c r="H954" s="1"/>
       <c r="I954" s="2"/>
@@ -7564,6 +8445,7 @@
     <row r="955" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
+      <c r="D955" s="1"/>
       <c r="G955" s="1"/>
       <c r="H955" s="1"/>
       <c r="I955" s="2"/>
@@ -7571,6 +8453,7 @@
     <row r="956" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
+      <c r="D956" s="1"/>
       <c r="G956" s="1"/>
       <c r="H956" s="1"/>
       <c r="I956" s="2"/>
@@ -7578,6 +8461,7 @@
     <row r="957" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
+      <c r="D957" s="1"/>
       <c r="G957" s="1"/>
       <c r="H957" s="1"/>
       <c r="I957" s="2"/>
@@ -7585,6 +8469,7 @@
     <row r="958" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
+      <c r="D958" s="1"/>
       <c r="G958" s="1"/>
       <c r="H958" s="1"/>
       <c r="I958" s="2"/>
@@ -7592,6 +8477,7 @@
     <row r="959" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
+      <c r="D959" s="1"/>
       <c r="G959" s="1"/>
       <c r="H959" s="1"/>
       <c r="I959" s="2"/>
@@ -7599,6 +8485,7 @@
     <row r="960" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
+      <c r="D960" s="1"/>
       <c r="G960" s="1"/>
       <c r="H960" s="1"/>
       <c r="I960" s="2"/>
@@ -7606,6 +8493,7 @@
     <row r="961" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
+      <c r="D961" s="1"/>
       <c r="G961" s="1"/>
       <c r="H961" s="1"/>
       <c r="I961" s="2"/>
@@ -7613,6 +8501,7 @@
     <row r="962" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
+      <c r="D962" s="1"/>
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
       <c r="I962" s="2"/>
@@ -7620,6 +8509,7 @@
     <row r="963" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
+      <c r="D963" s="1"/>
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
       <c r="I963" s="2"/>
@@ -7627,6 +8517,7 @@
     <row r="964" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
+      <c r="D964" s="1"/>
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
       <c r="I964" s="2"/>
@@ -7634,6 +8525,7 @@
     <row r="965" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
+      <c r="D965" s="1"/>
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
       <c r="I965" s="2"/>
@@ -7641,6 +8533,7 @@
     <row r="966" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
+      <c r="D966" s="1"/>
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
       <c r="I966" s="2"/>
@@ -7648,6 +8541,7 @@
     <row r="967" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
+      <c r="D967" s="1"/>
       <c r="G967" s="1"/>
       <c r="H967" s="1"/>
       <c r="I967" s="2"/>
@@ -7655,6 +8549,7 @@
     <row r="968" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
+      <c r="D968" s="1"/>
       <c r="G968" s="1"/>
       <c r="H968" s="1"/>
       <c r="I968" s="2"/>
@@ -7662,6 +8557,7 @@
     <row r="969" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
+      <c r="D969" s="1"/>
       <c r="G969" s="1"/>
       <c r="H969" s="1"/>
       <c r="I969" s="2"/>
@@ -7669,6 +8565,7 @@
     <row r="970" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
+      <c r="D970" s="1"/>
       <c r="G970" s="1"/>
       <c r="H970" s="1"/>
       <c r="I970" s="2"/>
@@ -7676,6 +8573,7 @@
     <row r="971" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
+      <c r="D971" s="1"/>
       <c r="G971" s="1"/>
       <c r="H971" s="1"/>
       <c r="I971" s="2"/>
@@ -7683,6 +8581,7 @@
     <row r="972" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
+      <c r="D972" s="1"/>
       <c r="G972" s="1"/>
       <c r="H972" s="1"/>
       <c r="I972" s="2"/>
@@ -7690,6 +8589,7 @@
     <row r="973" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
+      <c r="D973" s="1"/>
       <c r="G973" s="1"/>
       <c r="H973" s="1"/>
       <c r="I973" s="2"/>
@@ -7697,6 +8597,7 @@
     <row r="974" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
+      <c r="D974" s="1"/>
       <c r="G974" s="1"/>
       <c r="H974" s="1"/>
       <c r="I974" s="2"/>
@@ -7704,6 +8605,7 @@
     <row r="975" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
+      <c r="D975" s="1"/>
       <c r="G975" s="1"/>
       <c r="H975" s="1"/>
       <c r="I975" s="2"/>
@@ -7711,6 +8613,7 @@
     <row r="976" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
+      <c r="D976" s="1"/>
       <c r="G976" s="1"/>
       <c r="H976" s="1"/>
       <c r="I976" s="2"/>
@@ -7718,6 +8621,7 @@
     <row r="977" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
+      <c r="D977" s="1"/>
       <c r="G977" s="1"/>
       <c r="H977" s="1"/>
       <c r="I977" s="2"/>
@@ -7725,6 +8629,7 @@
     <row r="978" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
+      <c r="D978" s="1"/>
       <c r="G978" s="1"/>
       <c r="H978" s="1"/>
       <c r="I978" s="2"/>
@@ -7732,6 +8637,7 @@
     <row r="979" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
+      <c r="D979" s="1"/>
       <c r="G979" s="1"/>
       <c r="H979" s="1"/>
       <c r="I979" s="2"/>
@@ -7739,6 +8645,7 @@
     <row r="980" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
+      <c r="D980" s="1"/>
       <c r="G980" s="1"/>
       <c r="H980" s="1"/>
       <c r="I980" s="2"/>
@@ -7746,6 +8653,7 @@
     <row r="981" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
+      <c r="D981" s="1"/>
       <c r="G981" s="1"/>
       <c r="H981" s="1"/>
       <c r="I981" s="2"/>
@@ -7753,6 +8661,7 @@
     <row r="982" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
+      <c r="D982" s="1"/>
       <c r="G982" s="1"/>
       <c r="H982" s="1"/>
       <c r="I982" s="2"/>
@@ -7760,6 +8669,7 @@
     <row r="983" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
+      <c r="D983" s="1"/>
       <c r="G983" s="1"/>
       <c r="H983" s="1"/>
       <c r="I983" s="2"/>
@@ -7767,6 +8677,7 @@
     <row r="984" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
+      <c r="D984" s="1"/>
       <c r="G984" s="1"/>
       <c r="H984" s="1"/>
       <c r="I984" s="2"/>
@@ -7774,6 +8685,7 @@
     <row r="985" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
+      <c r="D985" s="1"/>
       <c r="G985" s="1"/>
       <c r="H985" s="1"/>
       <c r="I985" s="2"/>
@@ -7781,6 +8693,7 @@
     <row r="986" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
+      <c r="D986" s="1"/>
       <c r="G986" s="1"/>
       <c r="H986" s="1"/>
       <c r="I986" s="2"/>
@@ -7788,6 +8701,7 @@
     <row r="987" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
+      <c r="D987" s="1"/>
       <c r="G987" s="1"/>
       <c r="H987" s="1"/>
       <c r="I987" s="2"/>
@@ -7795,6 +8709,7 @@
     <row r="988" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
+      <c r="D988" s="1"/>
       <c r="G988" s="1"/>
       <c r="H988" s="1"/>
       <c r="I988" s="2"/>
@@ -7802,6 +8717,7 @@
     <row r="989" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
+      <c r="D989" s="1"/>
       <c r="G989" s="1"/>
       <c r="H989" s="1"/>
       <c r="I989" s="2"/>
@@ -7809,6 +8725,7 @@
     <row r="990" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
+      <c r="D990" s="1"/>
       <c r="G990" s="1"/>
       <c r="H990" s="1"/>
       <c r="I990" s="2"/>
@@ -7816,6 +8733,7 @@
     <row r="991" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
+      <c r="D991" s="1"/>
       <c r="G991" s="1"/>
       <c r="H991" s="1"/>
       <c r="I991" s="2"/>
@@ -7823,6 +8741,7 @@
     <row r="992" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
+      <c r="D992" s="1"/>
       <c r="G992" s="1"/>
       <c r="H992" s="1"/>
       <c r="I992" s="2"/>
@@ -7830,6 +8749,7 @@
     <row r="993" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
+      <c r="D993" s="1"/>
       <c r="G993" s="1"/>
       <c r="H993" s="1"/>
       <c r="I993" s="2"/>
@@ -7837,6 +8757,7 @@
     <row r="994" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
+      <c r="D994" s="1"/>
       <c r="G994" s="1"/>
       <c r="H994" s="1"/>
       <c r="I994" s="2"/>
@@ -7844,6 +8765,7 @@
     <row r="995" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
+      <c r="D995" s="1"/>
       <c r="G995" s="1"/>
       <c r="H995" s="1"/>
       <c r="I995" s="2"/>
@@ -7851,6 +8773,7 @@
     <row r="996" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
+      <c r="D996" s="1"/>
       <c r="G996" s="1"/>
       <c r="H996" s="1"/>
       <c r="I996" s="2"/>
@@ -7858,6 +8781,7 @@
     <row r="997" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
       <c r="G997" s="1"/>
       <c r="H997" s="1"/>
       <c r="I997" s="2"/>
@@ -7865,6 +8789,7 @@
     <row r="998" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
       <c r="G998" s="1"/>
       <c r="H998" s="1"/>
       <c r="I998" s="2"/>
@@ -7872,6 +8797,7 @@
     <row r="999" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
+      <c r="D999" s="1"/>
       <c r="G999" s="1"/>
       <c r="H999" s="1"/>
       <c r="I999" s="2"/>
@@ -7879,6 +8805,7 @@
     <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
       <c r="I1000" s="2"/>

--- a/zephyrm-backend/files/assets_report.xlsx
+++ b/zephyrm-backend/files/assets_report.xlsx
@@ -91,12 +91,6 @@
     <t>Conference Room</t>
   </si>
   <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
     <t>CCTV Camera</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Entrance Gate</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
   </si>
   <si>
     <t>Desktop PC</t>
@@ -692,34 +692,34 @@
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7">
         <v>45799.29036103009</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -788,10 +788,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -836,10 +836,10 @@
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -884,10 +884,10 @@
         <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
